--- a/files/strainSummaries/ambr/SupData1.xlsx
+++ b/files/strainSummaries/ambr/SupData1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdc002f3bb6c7156/Documentos/GitHub/hungerGamesModel/files/strainSummaries/ambr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdc002f3bb6c7156/Documentos/GitHub/hungerGamesModel - Copy/files/strainSummaries/ambr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{50C9EEC2-EE63-4503-A23D-42A3658F41D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{8250CBB3-204D-44D4-9BFC-5439AE57F3A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{997C804F-AD10-442B-A016-BFA4FDE6D7BD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" firstSheet="17" activeTab="25" xr2:uid="{9610BF22-17DE-45C6-BAF5-5D09DCA21724}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" firstSheet="13" activeTab="30" xr2:uid="{9610BF22-17DE-45C6-BAF5-5D09DCA21724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,13 @@
     <sheet name="A7_c2v10" sheetId="23" r:id="rId23"/>
     <sheet name="A7_c2v11" sheetId="24" r:id="rId24"/>
     <sheet name="A7_c2v12" sheetId="25" r:id="rId25"/>
-    <sheet name="Sheet2" sheetId="26" r:id="rId26"/>
+    <sheet name="A8_c2v2" sheetId="27" r:id="rId26"/>
+    <sheet name="A8_c2v6" sheetId="28" r:id="rId27"/>
+    <sheet name="A8_c2v9" sheetId="29" r:id="rId28"/>
+    <sheet name="A8_c1v2" sheetId="30" r:id="rId29"/>
+    <sheet name="A8_c1v6" sheetId="31" r:id="rId30"/>
+    <sheet name="A8_c1v8" sheetId="32" r:id="rId31"/>
+    <sheet name="Sheet2" sheetId="26" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="59">
   <si>
     <t>time</t>
   </si>
@@ -267,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -361,11 +367,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,6 +437,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12600,7 +12636,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A23"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27419,7 +27455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE94DFA7-F403-4625-988B-27790D1B8FA6}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -31113,7 +31149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F1FB41-94FE-4E3F-B526-A505A28E193F}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView topLeftCell="J27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="S45" sqref="S45:Z45"/>
     </sheetView>
   </sheetViews>
@@ -34816,7 +34852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C759848-5C27-425C-ADF1-C5EF6BE71326}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView topLeftCell="Q28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="S45" sqref="S45:Z45"/>
     </sheetView>
   </sheetViews>
@@ -42210,8 +42246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA28A40B-81DF-47C2-A78C-3766B24EEF70}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView topLeftCell="I18" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45:Z45"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45910,313 +45946,4120 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC8A40B-8D97-4A0E-9145-05F1282EDA4B}">
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7600C73-7E4D-4E15-8599-5469937E1A1B}">
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>18378622.242877062</v>
+      </c>
+      <c r="C2">
+        <v>30014042.112036612</v>
+      </c>
+      <c r="D2">
+        <v>16007335.645086335</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:H2" si="0">B2/100000000</f>
+        <v>0.18378622242877063</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.3001404211203661</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0.16007335645086335</v>
+      </c>
+      <c r="J2">
+        <v>212.86118999999999</v>
+      </c>
+      <c r="K2">
+        <v>1685.1749600000001</v>
+      </c>
+      <c r="L2">
+        <v>999.70779000000005</v>
+      </c>
+      <c r="M2">
+        <v>100.99523000000001</v>
+      </c>
+      <c r="N2">
+        <v>36.069560000000003</v>
+      </c>
+      <c r="O2">
+        <v>57.231229999999996</v>
+      </c>
+      <c r="P2">
+        <v>186.95650000000001</v>
+      </c>
+      <c r="Q2">
+        <v>6.0359699999999998</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2" si="1">J2/342.296</f>
+        <v>0.62186291981209241</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2" si="2">K2/180.156</f>
+        <v>9.3539763316237039</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2" si="3">L2/88.06</f>
+        <v>11.352575403134226</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2" si="4">M2/118.09</f>
+        <v>0.85523947836395975</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2" si="5">N2/90.08</f>
+        <v>0.40041696269982241</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2" si="6">O2/46.025</f>
+        <v>1.2434813688212927</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2" si="7">P2/60.052</f>
+        <v>3.11324352228069</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ref="Z2" si="8">Q2/88.11</f>
+        <v>6.8504937010554989E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>122083011.8030118</v>
+      </c>
+      <c r="C3">
+        <v>3382501850.4951839</v>
+      </c>
+      <c r="D3">
+        <v>720175137.70180428</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="9">B3/100000000</f>
+        <v>1.220830118030118</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="10">C3/100000000</f>
+        <v>33.825018504951842</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="11">D3/100000000</f>
+        <v>7.2017513770180432</v>
+      </c>
+      <c r="J3">
+        <v>179.37674999999999</v>
+      </c>
+      <c r="K3">
+        <v>83.181030000000007</v>
+      </c>
+      <c r="L3">
+        <v>45.174140000000001</v>
+      </c>
+      <c r="M3">
+        <v>634.25859000000003</v>
+      </c>
+      <c r="N3">
+        <v>34.722079999999998</v>
+      </c>
+      <c r="O3">
+        <v>75.684889999999996</v>
+      </c>
+      <c r="P3">
+        <v>814.97380999999996</v>
+      </c>
+      <c r="Q3">
+        <v>207.64952</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S10" si="12">J3/342.296</f>
+        <v>0.52403986608081887</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T10" si="13">K3/180.156</f>
+        <v>0.46171667887830548</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U10" si="14">L3/88.06</f>
+        <v>0.51299273222802633</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V10" si="15">M3/118.09</f>
+        <v>5.370976289270895</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W10" si="16">N3/90.08</f>
+        <v>0.38545825932504441</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X10" si="17">O3/46.025</f>
+        <v>1.6444299837045084</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y10" si="18">P3/60.052</f>
+        <v>13.571135182841537</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z10" si="19">Q3/88.11</f>
+        <v>2.3567077516740436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>44960540.638606675</v>
+      </c>
+      <c r="C4">
+        <v>1176567392.3560717</v>
+      </c>
+      <c r="D4">
+        <v>430622067.00532174</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="9"/>
+        <v>0.44960540638606677</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="10"/>
+        <v>11.765673923560717</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="11"/>
+        <v>4.3062206700532171</v>
+      </c>
+      <c r="J4">
+        <v>37.127899999999997</v>
+      </c>
+      <c r="K4">
+        <v>6.8629499999999997</v>
+      </c>
+      <c r="L4">
+        <v>14.68904</v>
+      </c>
+      <c r="M4">
+        <v>414.86971999999997</v>
+      </c>
+      <c r="N4">
+        <v>33.347479999999997</v>
+      </c>
+      <c r="O4">
+        <v>49.578749999999999</v>
+      </c>
+      <c r="P4">
+        <v>430.18581</v>
+      </c>
+      <c r="Q4">
+        <v>863.70658000000003</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="12"/>
+        <v>0.10846723303807231</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="13"/>
+        <v>3.8094484779857454E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="14"/>
+        <v>0.166807176924824</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="15"/>
+        <v>3.513165551697857</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="16"/>
+        <v>0.37019849023090584</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="17"/>
+        <v>1.0772134709397068</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="18"/>
+        <v>7.1635550855924865</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="19"/>
+        <v>9.8025942571785265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <f>(B4+B6)/2</f>
+        <v>28263004.311280757</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:D5" si="20">(C4+C6)/2</f>
+        <v>798123825.05933142</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="20"/>
+        <v>297953170.62938797</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="9"/>
+        <v>0.28263004311280759</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="10"/>
+        <v>7.9812382505933144</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="11"/>
+        <v>2.9795317062938795</v>
+      </c>
+      <c r="J5">
+        <v>36.904249999999998</v>
+      </c>
+      <c r="K5">
+        <v>5.6202500000000004</v>
+      </c>
+      <c r="L5">
+        <v>14.67407</v>
+      </c>
+      <c r="M5">
+        <v>286.52197999999999</v>
+      </c>
+      <c r="N5">
+        <v>20.174430000000001</v>
+      </c>
+      <c r="O5">
+        <v>61.830199999999998</v>
+      </c>
+      <c r="P5">
+        <v>419.53131000000002</v>
+      </c>
+      <c r="Q5">
+        <v>1203.2478000000001</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="12"/>
+        <v>0.10781385116974782</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="13"/>
+        <v>3.1196574080241568E-2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="14"/>
+        <v>0.16663717919600274</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="15"/>
+        <v>2.4263018037090354</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="16"/>
+        <v>0.22396125666074601</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="17"/>
+        <v>1.3434046713742531</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="18"/>
+        <v>6.9861338506627595</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="19"/>
+        <v>13.656200204290093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>11565467.983954836</v>
+      </c>
+      <c r="C6">
+        <v>419680257.762591</v>
+      </c>
+      <c r="D6">
+        <v>165284274.25345415</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="9"/>
+        <v>0.11565467983954836</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="10"/>
+        <v>4.1968025776259097</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="11"/>
+        <v>1.6528427425345416</v>
+      </c>
+      <c r="J6">
+        <v>45.406750000000002</v>
+      </c>
+      <c r="K6">
+        <v>16.636610000000001</v>
+      </c>
+      <c r="L6">
+        <v>15.762639999999999</v>
+      </c>
+      <c r="M6">
+        <v>225.95094</v>
+      </c>
+      <c r="N6">
+        <v>13.49478</v>
+      </c>
+      <c r="O6">
+        <v>65.230059999999995</v>
+      </c>
+      <c r="P6">
+        <v>339.98516000000001</v>
+      </c>
+      <c r="Q6">
+        <v>1350.7219600000001</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="12"/>
+        <v>0.1326534636688714</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="13"/>
+        <v>9.2345578276604723E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="14"/>
+        <v>0.17899886441062909</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="15"/>
+        <v>1.9133791176221526</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="16"/>
+        <v>0.14980883658969804</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="17"/>
+        <v>1.4172745247148288</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="18"/>
+        <v>5.6615126890028646</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="19"/>
+        <v>15.329950743388947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>124</v>
+      </c>
+      <c r="B7">
+        <v>6955402.128644147</v>
+      </c>
+      <c r="C7">
+        <v>598247385.46968997</v>
+      </c>
+      <c r="D7">
+        <v>289477212.40166593</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="9"/>
+        <v>6.9554021286441475E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="10"/>
+        <v>5.9824738546968996</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="11"/>
+        <v>2.8947721240166593</v>
+      </c>
+      <c r="J7">
+        <v>224.97331</v>
+      </c>
+      <c r="K7">
+        <v>15.84388</v>
+      </c>
+      <c r="L7">
+        <v>15.212820000000001</v>
+      </c>
+      <c r="M7">
+        <v>248.3056</v>
+      </c>
+      <c r="N7">
+        <v>13.143980000000001</v>
+      </c>
+      <c r="O7">
+        <v>59.484589999999997</v>
+      </c>
+      <c r="P7">
+        <v>214.51177000000001</v>
+      </c>
+      <c r="Q7">
+        <v>1279.5246400000001</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="12"/>
+        <v>0.65724784981419593</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="13"/>
+        <v>8.794533626412665E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="14"/>
+        <v>0.17275516693163753</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="15"/>
+        <v>2.1026810060123635</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="16"/>
+        <v>0.14591452042628775</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="17"/>
+        <v>1.2924408473655622</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="18"/>
+        <v>3.5721003463664824</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="19"/>
+        <v>14.521900351832937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>190</v>
+      </c>
+      <c r="B8">
+        <v>69239081.486475095</v>
+      </c>
+      <c r="C8">
+        <v>481216602.3426308</v>
+      </c>
+      <c r="D8">
+        <v>238464316.17089409</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="9"/>
+        <v>0.69239081486475096</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="10"/>
+        <v>4.8121660234263084</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="11"/>
+        <v>2.384643161708941</v>
+      </c>
+      <c r="J8">
+        <v>231.33729</v>
+      </c>
+      <c r="K8">
+        <v>15.364459999999999</v>
+      </c>
+      <c r="L8">
+        <v>14.02694</v>
+      </c>
+      <c r="M8">
+        <v>167.31189000000001</v>
+      </c>
+      <c r="N8">
+        <v>13.316929999999999</v>
+      </c>
+      <c r="O8">
+        <v>63.067279999999997</v>
+      </c>
+      <c r="P8">
+        <v>535.30251999999996</v>
+      </c>
+      <c r="Q8">
+        <v>1523.55916</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="12"/>
+        <v>0.67583988711524534</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="13"/>
+        <v>8.5284198139390296E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="14"/>
+        <v>0.1592884397002044</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="15"/>
+        <v>1.4168167499364892</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="16"/>
+        <v>0.14783448046181172</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="17"/>
+        <v>1.3702831070070614</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="18"/>
+        <v>8.9139832145473914</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="19"/>
+        <v>17.291557825445466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>250</v>
+      </c>
+      <c r="B9">
+        <v>58449923.682705067</v>
+      </c>
+      <c r="C9">
+        <v>444580672.3711918</v>
+      </c>
+      <c r="D9">
+        <v>227989403.94610325</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="9"/>
+        <v>0.58449923682705063</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="10"/>
+        <v>4.4458067237119181</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="11"/>
+        <v>2.2798940394610323</v>
+      </c>
+      <c r="J9">
+        <v>189.2911</v>
+      </c>
+      <c r="K9">
+        <v>6.4616199999999999</v>
+      </c>
+      <c r="L9">
+        <v>11.23288</v>
+      </c>
+      <c r="M9">
+        <v>138.50165999999999</v>
+      </c>
+      <c r="N9">
+        <v>13.86542</v>
+      </c>
+      <c r="O9">
+        <v>89.523570000000007</v>
+      </c>
+      <c r="P9">
+        <v>447.96170999999998</v>
+      </c>
+      <c r="Q9">
+        <v>1513.6947600000001</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="12"/>
+        <v>0.55300412508472196</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="13"/>
+        <v>3.5866804325140431E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="14"/>
+        <v>0.12755939132409719</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="15"/>
+        <v>1.1728483360149038</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="16"/>
+        <v>0.15392340142095914</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="17"/>
+        <v>1.945107441607822</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="18"/>
+        <v>7.4595635449277289</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="19"/>
+        <v>17.17960231528771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>400</v>
+      </c>
+      <c r="B10">
+        <v>106424515.94877765</v>
+      </c>
+      <c r="C10">
+        <v>702295778.34691501</v>
+      </c>
+      <c r="D10">
+        <v>139999705.70430735</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="9"/>
+        <v>1.0642451594877764</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="10"/>
+        <v>7.0229577834691499</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="11"/>
+        <v>1.3999970570430735</v>
+      </c>
+      <c r="J10">
+        <v>217.51608999999999</v>
+      </c>
+      <c r="K10">
+        <v>5.7539899999999999</v>
+      </c>
+      <c r="L10">
+        <v>8.3589500000000001</v>
+      </c>
+      <c r="M10">
+        <v>129.79868999999999</v>
+      </c>
+      <c r="N10">
+        <v>11.632</v>
+      </c>
+      <c r="O10">
+        <v>48.537660000000002</v>
+      </c>
+      <c r="P10">
+        <v>500.53744</v>
+      </c>
+      <c r="Q10">
+        <v>1290.08995</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="12"/>
+        <v>0.63546196858858994</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="13"/>
+        <v>3.1938930704500545E-2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="14"/>
+        <v>9.492334771746537E-2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="15"/>
+        <v>1.0991505631298162</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="16"/>
+        <v>0.12912966252220248</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="17"/>
+        <v>1.0545933731667574</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="18"/>
+        <v>8.3350669419836141</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="19"/>
+        <v>14.641810804675973</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA97C3A-518E-4714-BEB6-677845E2B7F1}">
+  <dimension ref="A1:Z10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>38004420.294187993</v>
+      </c>
+      <c r="C2">
+        <v>58218510.822769672</v>
+      </c>
+      <c r="D2">
+        <v>27927068.883042332</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:H2" si="0">B2/100000000</f>
+        <v>0.38004420294187991</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.58218510822769676</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0.27927068883042333</v>
+      </c>
+      <c r="J2">
+        <v>221.80055999999999</v>
+      </c>
+      <c r="K2">
+        <v>1771.81538</v>
+      </c>
+      <c r="L2">
+        <v>1046.2671600000001</v>
+      </c>
+      <c r="M2">
+        <v>106.23165</v>
+      </c>
+      <c r="N2">
+        <v>37.654499999999999</v>
+      </c>
+      <c r="O2">
+        <v>60.763939999999998</v>
+      </c>
+      <c r="P2">
+        <v>188.64641</v>
+      </c>
+      <c r="Q2">
+        <v>7.8563499999999999</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2" si="1">J2/342.296</f>
+        <v>0.64797882534414653</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2" si="2">K2/180.156</f>
+        <v>9.8348952019360993</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2" si="3">L2/88.06</f>
+        <v>11.881298660004543</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2" si="4">M2/118.09</f>
+        <v>0.89958209839952574</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2" si="5">N2/90.08</f>
+        <v>0.4180117673179396</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2" si="6">O2/46.025</f>
+        <v>1.3202376969038565</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2" si="7">P2/60.052</f>
+        <v>3.1413843002730966</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ref="Z2" si="8">Q2/88.11</f>
+        <v>8.9165247985472706E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>132106548.55534399</v>
+      </c>
+      <c r="C3">
+        <v>2334531302.2601209</v>
+      </c>
+      <c r="D3">
+        <v>892762149.18453515</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="9">B3/100000000</f>
+        <v>1.3210654855534398</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="10">C3/100000000</f>
+        <v>23.345313022601207</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="11">D3/100000000</f>
+        <v>8.9276214918453523</v>
+      </c>
+      <c r="J3">
+        <v>187.68467999999999</v>
+      </c>
+      <c r="K3">
+        <v>13.35252</v>
+      </c>
+      <c r="L3">
+        <v>13.61106</v>
+      </c>
+      <c r="M3">
+        <v>494.56419</v>
+      </c>
+      <c r="N3">
+        <v>20.930389999999999</v>
+      </c>
+      <c r="O3">
+        <v>58.255929999999999</v>
+      </c>
+      <c r="P3">
+        <v>804.39013999999997</v>
+      </c>
+      <c r="Q3">
+        <v>349.59983999999997</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S10" si="12">J3/342.296</f>
+        <v>0.5483110524224647</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T10" si="13">K3/180.156</f>
+        <v>7.4116432425231471E-2</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U10" si="14">L3/88.06</f>
+        <v>0.15456575062457414</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V10" si="15">M3/118.09</f>
+        <v>4.188027690744347</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W10" si="16">N3/90.08</f>
+        <v>0.23235335257548845</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X10" si="17">O3/46.025</f>
+        <v>1.2657453557848994</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y10" si="18">P3/60.052</f>
+        <v>13.394893425697727</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z10" si="19">Q3/88.11</f>
+        <v>3.9677657473612529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B4">
+        <v>55045716.286397852</v>
+      </c>
+      <c r="C4">
+        <v>792126274.14366579</v>
+      </c>
+      <c r="D4">
+        <v>321748009.56993639</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="9"/>
+        <v>0.5504571628639785</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="10"/>
+        <v>7.9212627414366583</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="11"/>
+        <v>3.2174800956993641</v>
+      </c>
+      <c r="J4">
+        <v>196.53198</v>
+      </c>
+      <c r="K4">
+        <v>15.02205</v>
+      </c>
+      <c r="L4">
+        <v>14.546110000000001</v>
+      </c>
+      <c r="M4">
+        <v>380.14989000000003</v>
+      </c>
+      <c r="N4">
+        <v>23.906189999999999</v>
+      </c>
+      <c r="O4">
+        <v>49.806870000000004</v>
+      </c>
+      <c r="P4">
+        <v>375.43928</v>
+      </c>
+      <c r="Q4">
+        <v>1033.0967800000001</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="12"/>
+        <v>0.57415798022763931</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="13"/>
+        <v>8.338356757476853E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="14"/>
+        <v>0.1651840790370202</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="15"/>
+        <v>3.2191539503768314</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="16"/>
+        <v>0.2653884325044405</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="17"/>
+        <v>1.0821699076588811</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="18"/>
+        <v>6.251903017384933</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="19"/>
+        <v>11.725079786630349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>52</v>
       </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
+      <c r="B5">
+        <v>31873027.510316368</v>
+      </c>
+      <c r="C5">
+        <v>583698817.05639625</v>
+      </c>
+      <c r="D5">
+        <v>315018155.4332875</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="9"/>
+        <v>0.31873027510316371</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="10"/>
+        <v>5.8369881705639628</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="11"/>
+        <v>3.1501815543328751</v>
+      </c>
+      <c r="J5">
+        <v>217.13935000000001</v>
+      </c>
+      <c r="K5">
+        <v>15.79796</v>
+      </c>
+      <c r="L5">
+        <v>14.38218</v>
+      </c>
+      <c r="M5">
+        <v>249.98705000000001</v>
+      </c>
+      <c r="N5">
+        <v>19.172239999999999</v>
+      </c>
+      <c r="O5">
+        <v>54.637909999999998</v>
+      </c>
+      <c r="P5">
+        <v>476.07341000000002</v>
+      </c>
+      <c r="Q5">
+        <v>1107.5898999999999</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="12"/>
+        <v>0.63436134223011664</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="13"/>
+        <v>8.7690446057860957E-2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="14"/>
+        <v>0.16332250738133092</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="15"/>
+        <v>2.1169197222457448</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="16"/>
+        <v>0.21283570159857904</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="17"/>
+        <v>1.1871354698533405</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="18"/>
+        <v>7.9276861719842806</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="19"/>
+        <v>12.57053569401884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>12999469.256959744</v>
+      </c>
+      <c r="C6">
+        <v>234847000.80112159</v>
+      </c>
+      <c r="D6">
+        <v>255303529.94191867</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="9"/>
+        <v>0.12999469256959745</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="10"/>
+        <v>2.348470008011216</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="11"/>
+        <v>2.5530352994191867</v>
+      </c>
+      <c r="J6">
+        <v>190.74106</v>
+      </c>
+      <c r="K6">
+        <v>15.826409999999999</v>
+      </c>
+      <c r="L6">
+        <v>15.81969</v>
+      </c>
+      <c r="M6">
+        <v>194.01664</v>
+      </c>
+      <c r="N6">
+        <v>17.30461</v>
+      </c>
+      <c r="O6">
+        <v>83.875680000000003</v>
+      </c>
+      <c r="P6">
+        <v>437.06272999999999</v>
+      </c>
+      <c r="Q6">
+        <v>1296.0032100000001</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="12"/>
+        <v>0.55724010797672197</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="13"/>
+        <v>8.784836475054951E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="14"/>
+        <v>0.17964671814671815</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="15"/>
+        <v>1.6429557117452789</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="16"/>
+        <v>0.1921026865008881</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="17"/>
+        <v>1.82239391634981</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="18"/>
+        <v>7.2780711716512352</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="19"/>
+        <v>14.708923050732041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>124</v>
+      </c>
+      <c r="B7">
+        <v>17476040.160956364</v>
+      </c>
+      <c r="C7">
+        <v>136329378.44278628</v>
+      </c>
+      <c r="D7">
+        <v>308794581.3962574</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="9"/>
+        <v>0.17476040160956363</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="10"/>
+        <v>1.3632937844278628</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="11"/>
+        <v>3.0879458139625742</v>
+      </c>
+      <c r="J7">
+        <v>198.2877</v>
+      </c>
+      <c r="K7">
+        <v>15.18116</v>
+      </c>
+      <c r="L7">
+        <v>15.221080000000001</v>
+      </c>
+      <c r="M7">
+        <v>153.29508000000001</v>
+      </c>
+      <c r="N7">
+        <v>20.5</v>
+      </c>
+      <c r="O7">
+        <v>59.387320000000003</v>
+      </c>
+      <c r="P7">
+        <v>434.59706999999997</v>
+      </c>
+      <c r="Q7">
+        <v>1264.2693999999999</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="12"/>
+        <v>0.57928722509173347</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="13"/>
+        <v>8.4266746597393374E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="14"/>
+        <v>0.17284896661367249</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="15"/>
+        <v>1.2981207553560845</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="16"/>
+        <v>0.22757548845470693</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="17"/>
+        <v>1.2903274307441608</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="18"/>
+        <v>7.2370124225671084</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="19"/>
+        <v>14.348761775053909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>190</v>
+      </c>
+      <c r="B8">
+        <v>40611647.416413374</v>
+      </c>
+      <c r="C8">
+        <v>608295829.78723407</v>
+      </c>
+      <c r="D8">
+        <v>134212522.7963526</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="9"/>
+        <v>0.40611647416413377</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="10"/>
+        <v>6.0829582978723407</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="11"/>
+        <v>1.3421252279635258</v>
+      </c>
+      <c r="J8">
+        <v>208.70417</v>
+      </c>
+      <c r="K8">
+        <v>15.87885</v>
+      </c>
+      <c r="L8">
+        <v>14.37401</v>
+      </c>
+      <c r="M8">
+        <v>136.32055</v>
+      </c>
+      <c r="N8">
+        <v>15.19252</v>
+      </c>
+      <c r="O8">
+        <v>64.610929999999996</v>
+      </c>
+      <c r="P8">
+        <v>427.75281999999999</v>
+      </c>
+      <c r="Q8">
+        <v>1384.2652399999999</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="12"/>
+        <v>0.60971840161731372</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="13"/>
+        <v>8.8139445813628189E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="14"/>
+        <v>0.16322972972972974</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="15"/>
+        <v>1.1543784401727495</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="16"/>
+        <v>0.16865586145648312</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="17"/>
+        <v>1.4038224877783814</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="18"/>
+        <v>7.1230403650169851</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="19"/>
+        <v>15.710648507547383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>250</v>
+      </c>
+      <c r="B9">
+        <v>79956558.805227131</v>
+      </c>
+      <c r="C9">
+        <v>270024275.04667085</v>
+      </c>
+      <c r="D9">
+        <v>277719166.14810205</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="9"/>
+        <v>0.79956558805227129</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="10"/>
+        <v>2.7002427504667086</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="11"/>
+        <v>2.7771916614810204</v>
+      </c>
+      <c r="J9">
+        <v>184.65297000000001</v>
+      </c>
+      <c r="K9">
+        <v>15.04031</v>
+      </c>
+      <c r="L9">
+        <v>12.126609999999999</v>
+      </c>
+      <c r="M9">
+        <v>121.26526</v>
+      </c>
+      <c r="N9">
+        <v>20.951429999999998</v>
+      </c>
+      <c r="O9">
+        <v>58.443919999999999</v>
+      </c>
+      <c r="P9">
+        <v>430.50796000000003</v>
+      </c>
+      <c r="Q9">
+        <v>1326.66652</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="12"/>
+        <v>0.53945406899291848</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="13"/>
+        <v>8.3484924176824529E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="14"/>
+        <v>0.13770849420849421</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="15"/>
+        <v>1.0268884748920315</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="16"/>
+        <v>0.23258692273534634</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="17"/>
+        <v>1.2698298750678978</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="18"/>
+        <v>7.1689196030107247</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="19"/>
+        <v>15.056934740665078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>400</v>
+      </c>
+      <c r="B10">
+        <v>14671061.156150863</v>
+      </c>
+      <c r="C10">
+        <v>156501193.51427564</v>
+      </c>
+      <c r="D10">
+        <v>249037745.32957345</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="9"/>
+        <v>0.14671061156150864</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="10"/>
+        <v>1.5650119351427565</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="11"/>
+        <v>2.4903774532957343</v>
+      </c>
+      <c r="J10">
+        <v>192.91961000000001</v>
+      </c>
+      <c r="K10">
+        <v>7.3471799999999998</v>
+      </c>
+      <c r="L10">
+        <v>10.77936</v>
+      </c>
+      <c r="M10">
+        <v>117.24438000000001</v>
+      </c>
+      <c r="N10">
+        <v>17.016850000000002</v>
+      </c>
+      <c r="O10">
+        <v>53.375300000000003</v>
+      </c>
+      <c r="P10">
+        <v>592.60451999999998</v>
+      </c>
+      <c r="Q10">
+        <v>1238.8854699999999</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="12"/>
+        <v>0.56360462874237505</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="13"/>
+        <v>4.0782321987610733E-2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="14"/>
+        <v>0.12240926640926642</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="15"/>
+        <v>0.99283919044796343</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="16"/>
+        <v>0.18890819271758438</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="17"/>
+        <v>1.1597023356871266</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="18"/>
+        <v>9.8681895690401653</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="19"/>
+        <v>14.060668142095107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39262E17-5157-4451-8663-A6210874FE10}">
+  <dimension ref="A1:Z10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="29">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>17618451.543490853</v>
+      </c>
+      <c r="C2">
+        <v>26285783.745758504</v>
+      </c>
+      <c r="D2">
+        <v>13245764.710750641</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:H2" si="0">B2/100000000</f>
+        <v>0.17618451543490854</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.26285783745758506</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0.1324576471075064</v>
+      </c>
+      <c r="J2">
+        <v>216.06447</v>
+      </c>
+      <c r="K2">
+        <v>1738.50809</v>
+      </c>
+      <c r="L2">
+        <v>1025.37931</v>
+      </c>
+      <c r="M2">
+        <v>103.66733000000001</v>
+      </c>
+      <c r="N2">
+        <v>37.163359999999997</v>
+      </c>
+      <c r="O2">
+        <v>58.753149999999998</v>
+      </c>
+      <c r="P2">
+        <v>183.553</v>
+      </c>
+      <c r="Q2">
+        <v>6.8402399999999997</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2" si="1">J2/342.296</f>
+        <v>0.63122113609273844</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2" si="2">K2/180.156</f>
+        <v>9.650014931503808</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2" si="3">L2/88.06</f>
+        <v>11.644098455598456</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2" si="4">M2/118.09</f>
+        <v>0.87786713523583715</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2" si="5">N2/90.08</f>
+        <v>0.41255950266429836</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2" si="6">O2/46.025</f>
+        <v>1.2765486148832157</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2" si="7">P2/60.052</f>
+        <v>3.0565676413774727</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ref="Z2" si="8">Q2/88.11</f>
+        <v>7.763295880149812E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>147405371.75792506</v>
+      </c>
+      <c r="C3">
+        <v>3739010526.3157897</v>
+      </c>
+      <c r="D3">
+        <v>849664101.92628539</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="9">B3/100000000</f>
+        <v>1.4740537175792507</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="10">C3/100000000</f>
+        <v>37.390105263157899</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="11">D3/100000000</f>
+        <v>8.496641019262853</v>
+      </c>
+      <c r="J3">
+        <v>190.44665000000001</v>
+      </c>
+      <c r="K3">
+        <v>63.46434</v>
+      </c>
+      <c r="L3">
+        <v>32.800719999999998</v>
+      </c>
+      <c r="M3">
+        <v>609.48001999999997</v>
+      </c>
+      <c r="N3">
+        <v>31.476330000000001</v>
+      </c>
+      <c r="O3">
+        <v>72.992459999999994</v>
+      </c>
+      <c r="P3">
+        <v>801.46511999999996</v>
+      </c>
+      <c r="Q3">
+        <v>192.08484000000001</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S10" si="12">J3/342.296</f>
+        <v>0.55638000444060109</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T10" si="13">K3/180.156</f>
+        <v>0.35227436221940983</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U10" si="14">L3/88.06</f>
+        <v>0.37248148989325458</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V10" si="15">M3/118.09</f>
+        <v>5.1611484461004311</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W10" si="16">N3/90.08</f>
+        <v>0.34942639875666076</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X10" si="17">O3/46.025</f>
+        <v>1.5859306898424768</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y10" si="18">P3/60.052</f>
+        <v>13.346185306068074</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z10" si="19">Q3/88.11</f>
+        <v>2.1800572012257406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" s="30">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>54590966.81262964</v>
+      </c>
+      <c r="C4">
+        <v>1578556977.4141507</v>
+      </c>
+      <c r="D4">
+        <v>575432055.7732197</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="9"/>
+        <v>0.54590966812629638</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="10"/>
+        <v>15.785569774141507</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="11"/>
+        <v>5.7543205577321972</v>
+      </c>
+      <c r="J4">
+        <v>283.37815999999998</v>
+      </c>
+      <c r="K4">
+        <v>13.74076</v>
+      </c>
+      <c r="L4">
+        <v>13.896179999999999</v>
+      </c>
+      <c r="M4">
+        <v>389.97014000000001</v>
+      </c>
+      <c r="N4">
+        <v>30.537240000000001</v>
+      </c>
+      <c r="O4">
+        <v>45.524799999999999</v>
+      </c>
+      <c r="P4">
+        <v>385.87416000000002</v>
+      </c>
+      <c r="Q4">
+        <v>881.08932000000004</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="12"/>
+        <v>0.82787458807581737</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="13"/>
+        <v>7.6271453629077016E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="14"/>
+        <v>0.15780354303883715</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="15"/>
+        <v>3.3023129816241852</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="16"/>
+        <v>0.3390013321492007</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="17"/>
+        <v>0.98913199348180336</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="18"/>
+        <v>6.4256670885232801</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="19"/>
+        <v>9.9998787878787887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5" s="30">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>194528202.93920362</v>
+      </c>
+      <c r="C5">
+        <v>1240534139.8865783</v>
+      </c>
+      <c r="D5">
+        <v>590377657.17421794</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="9"/>
+        <v>1.9452820293920361</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="10"/>
+        <v>12.405341398865783</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="11"/>
+        <v>5.9037765717421795</v>
+      </c>
+      <c r="J5">
+        <v>270.33398</v>
+      </c>
+      <c r="K5">
+        <v>5.4556899999999997</v>
+      </c>
+      <c r="L5">
+        <v>14.48057</v>
+      </c>
+      <c r="M5">
+        <v>283.63215000000002</v>
+      </c>
+      <c r="N5">
+        <v>19.61103</v>
+      </c>
+      <c r="O5">
+        <v>59.154339999999998</v>
+      </c>
+      <c r="P5">
+        <v>418.67336</v>
+      </c>
+      <c r="Q5">
+        <v>1181.1904199999999</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="12"/>
+        <v>0.7897666931544628</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="13"/>
+        <v>3.028314349785741E-2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="14"/>
+        <v>0.16443981376334318</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="15"/>
+        <v>2.4018303836057244</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="16"/>
+        <v>0.21770681616341031</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="17"/>
+        <v>1.2852653992395437</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="18"/>
+        <v>6.9718470658762408</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="19"/>
+        <v>13.405861082737486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" s="30">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>11309520.310387395</v>
+      </c>
+      <c r="C6">
+        <v>353037986.00905293</v>
+      </c>
+      <c r="D6">
+        <v>148682493.68055964</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="9"/>
+        <v>0.11309520310387396</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="10"/>
+        <v>3.5303798600905294</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="11"/>
+        <v>1.4868249368055964</v>
+      </c>
+      <c r="J6">
+        <v>227.27440000000001</v>
+      </c>
+      <c r="K6">
+        <v>17.137160000000002</v>
+      </c>
+      <c r="L6">
+        <v>15.69881</v>
+      </c>
+      <c r="M6">
+        <v>223.64941999999999</v>
+      </c>
+      <c r="N6">
+        <v>13.73902</v>
+      </c>
+      <c r="O6">
+        <v>65.626339999999999</v>
+      </c>
+      <c r="P6">
+        <v>333.30606999999998</v>
+      </c>
+      <c r="Q6">
+        <v>1335.0313900000001</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="12"/>
+        <v>0.66397036483043925</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="13"/>
+        <v>9.512400364128866E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="14"/>
+        <v>0.17827401771519419</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="15"/>
+        <v>1.8938895757473113</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="16"/>
+        <v>0.15252020426287743</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="17"/>
+        <v>1.4258846279196089</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="18"/>
+        <v>5.5502909145407306</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="19"/>
+        <v>15.151871410736581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" s="30">
+        <v>124</v>
+      </c>
+      <c r="B7">
+        <v>4627248.7856264999</v>
+      </c>
+      <c r="C7">
+        <v>599814092.58500624</v>
+      </c>
+      <c r="D7">
+        <v>348158658.62936735</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="9"/>
+        <v>4.6272487856264997E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="10"/>
+        <v>5.9981409258500626</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="11"/>
+        <v>3.4815865862936737</v>
+      </c>
+      <c r="J7">
+        <v>182.93260000000001</v>
+      </c>
+      <c r="K7">
+        <v>15.895759999999999</v>
+      </c>
+      <c r="L7">
+        <v>15.631779999999999</v>
+      </c>
+      <c r="M7">
+        <v>268.10727000000003</v>
+      </c>
+      <c r="N7">
+        <v>12.255800000000001</v>
+      </c>
+      <c r="O7">
+        <v>65.69256</v>
+      </c>
+      <c r="P7">
+        <v>211.49035000000001</v>
+      </c>
+      <c r="Q7">
+        <v>1273.1969300000001</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="12"/>
+        <v>0.53442809731927921</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="13"/>
+        <v>8.8233308910055722E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="14"/>
+        <v>0.17751283215989097</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="15"/>
+        <v>2.2703638750105855</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="16"/>
+        <v>0.13605461811722913</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="17"/>
+        <v>1.427323411189571</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="18"/>
+        <v>3.521786951308866</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="19"/>
+        <v>14.45008432641017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8" s="30">
+        <v>190</v>
+      </c>
+      <c r="B8">
+        <v>17132229.409485199</v>
+      </c>
+      <c r="C8">
+        <v>382857134.76614898</v>
+      </c>
+      <c r="D8">
+        <v>182610635.82436579</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="9"/>
+        <v>0.17132229409485197</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="10"/>
+        <v>3.82857134766149</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="11"/>
+        <v>1.8261063582436579</v>
+      </c>
+      <c r="J8">
+        <v>217.59710999999999</v>
+      </c>
+      <c r="K8">
+        <v>17.32958</v>
+      </c>
+      <c r="L8">
+        <v>14.11806</v>
+      </c>
+      <c r="M8">
+        <v>287.86497000000003</v>
+      </c>
+      <c r="N8">
+        <v>25.818529999999999</v>
+      </c>
+      <c r="O8">
+        <v>60.38015</v>
+      </c>
+      <c r="P8">
+        <v>464.66066000000001</v>
+      </c>
+      <c r="Q8">
+        <v>1309.6898799999999</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="12"/>
+        <v>0.63569866431392708</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="13"/>
+        <v>9.6192077976864493E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="14"/>
+        <v>0.16032318873495344</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="15"/>
+        <v>2.4376744008806845</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="16"/>
+        <v>0.28661778419182948</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="17"/>
+        <v>1.3118989679522</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="18"/>
+        <v>7.7376383800706057</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="19"/>
+        <v>14.86425922142776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9" s="30">
+        <v>250</v>
+      </c>
+      <c r="B9">
+        <v>13727871.532285206</v>
+      </c>
+      <c r="C9">
+        <v>574812539.06437802</v>
+      </c>
+      <c r="D9">
+        <v>189459589.4033367</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="9"/>
+        <v>0.13727871532285207</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="10"/>
+        <v>5.7481253906437804</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="11"/>
+        <v>1.8945958940333671</v>
+      </c>
+      <c r="J9">
+        <v>185.53975</v>
+      </c>
+      <c r="K9">
+        <v>14.8826</v>
+      </c>
+      <c r="L9">
+        <v>9.2919300000000007</v>
+      </c>
+      <c r="M9">
+        <v>397.69639000000001</v>
+      </c>
+      <c r="N9">
+        <v>59.719209999999997</v>
+      </c>
+      <c r="O9">
+        <v>52.967689999999997</v>
+      </c>
+      <c r="P9">
+        <v>375.04050000000001</v>
+      </c>
+      <c r="Q9">
+        <v>1235.60076</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="12"/>
+        <v>0.54204475074204783</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="13"/>
+        <v>8.2609516197073643E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="14"/>
+        <v>0.10551816942993414</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="15"/>
+        <v>3.3677397747480735</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="16"/>
+        <v>0.66295748223801065</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="17"/>
+        <v>1.150846061922868</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="18"/>
+        <v>6.245262439219343</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="19"/>
+        <v>14.023388491658155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="20">
+        <v>400</v>
+      </c>
+      <c r="B10">
+        <v>43496758.777849063</v>
+      </c>
+      <c r="C10">
+        <v>609821013.73924208</v>
+      </c>
+      <c r="D10">
+        <v>236682227.48290893</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="9"/>
+        <v>0.43496758777849065</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="10"/>
+        <v>6.0982101373924209</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="11"/>
+        <v>2.3668222748290892</v>
+      </c>
+      <c r="J10">
+        <v>36.793239999999997</v>
+      </c>
+      <c r="K10">
+        <v>17.54843</v>
+      </c>
+      <c r="L10">
+        <v>8.0168800000000005</v>
+      </c>
+      <c r="M10">
+        <v>287.87484000000001</v>
+      </c>
+      <c r="N10">
+        <v>68.757710000000003</v>
+      </c>
+      <c r="O10">
+        <v>51.042639999999999</v>
+      </c>
+      <c r="P10">
+        <v>610.68375000000003</v>
+      </c>
+      <c r="Q10">
+        <v>1265.48116</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="12"/>
+        <v>0.10748954121578984</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="13"/>
+        <v>9.7406858500410753E-2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="14"/>
+        <v>9.1038837156484212E-2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="15"/>
+        <v>2.4377579812007792</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="16"/>
+        <v>0.7632960701598579</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="17"/>
+        <v>1.1090198804997284</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="18"/>
+        <v>10.169249150736029</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="19"/>
+        <v>14.362514584042675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0088EB15-7AB0-41FD-A4B7-FBDA2DEAA30C}">
+  <dimension ref="A1:Z20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4:Z20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="27">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:H2" si="0">B2/100000000</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>247.41469000000001</v>
+      </c>
+      <c r="K2">
+        <v>1790.46433</v>
+      </c>
+      <c r="L2">
+        <v>1051.21747</v>
+      </c>
+      <c r="M2">
+        <v>107.83503</v>
+      </c>
+      <c r="N2">
+        <v>38.294899999999998</v>
+      </c>
+      <c r="O2">
+        <v>60.945900000000002</v>
+      </c>
+      <c r="P2">
+        <v>203.31557000000001</v>
+      </c>
+      <c r="Q2">
+        <v>7.3181500000000002</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2" si="1">J2/342.296</f>
+        <v>0.72280917685278245</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2" si="2">K2/180.156</f>
+        <v>9.9384107662248269</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2" si="3">L2/88.06</f>
+        <v>11.937513854190325</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2" si="4">M2/118.09</f>
+        <v>0.91315970869675667</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2" si="5">N2/90.08</f>
+        <v>0.42512100355239785</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2" si="6">O2/46.025</f>
+        <v>1.3241912004345464</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2" si="7">P2/60.052</f>
+        <v>3.3856585958835677</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ref="Z2" si="8">Q2/88.11</f>
+        <v>8.3056974236749515E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" s="27">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F20" si="9">B3/100000000</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G20" si="10">C3/100000000</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H20" si="11">D3/100000000</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>247.41469000000001</v>
+      </c>
+      <c r="K3">
+        <v>14.829650000000001</v>
+      </c>
+      <c r="L3">
+        <v>14.79157</v>
+      </c>
+      <c r="M3">
+        <v>579.71540000000005</v>
+      </c>
+      <c r="N3">
+        <v>24.92924</v>
+      </c>
+      <c r="O3">
+        <v>70.985079999999996</v>
+      </c>
+      <c r="P3">
+        <v>886.08151999999995</v>
+      </c>
+      <c r="Q3">
+        <v>331.66766000000001</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S20" si="12">J3/342.296</f>
+        <v>0.72280917685278245</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T20" si="13">K3/180.156</f>
+        <v>8.2315604254090902E-2</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U20" si="14">L3/88.06</f>
+        <v>0.16797149670679082</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V20" si="15">M3/118.09</f>
+        <v>4.9090981454822593</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W20" si="16">N3/90.08</f>
+        <v>0.27674555950266433</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X20" si="17">O3/46.025</f>
+        <v>1.5423156979902226</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y20" si="18">P3/60.052</f>
+        <v>14.755237460867248</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z20" si="19">Q3/88.11</f>
+        <v>3.7642453750993079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" s="27">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>999204.13174159674</v>
+      </c>
+      <c r="C4">
+        <v>47415358.564050466</v>
+      </c>
+      <c r="D4">
+        <v>43785437.304207943</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="9"/>
+        <v>9.9920413174159669E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="10"/>
+        <v>0.47415358564050464</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="11"/>
+        <v>0.43785437304207941</v>
+      </c>
+      <c r="J4">
+        <v>241.37255999999999</v>
+      </c>
+      <c r="K4">
+        <v>15.828659999999999</v>
+      </c>
+      <c r="L4">
+        <v>15.39086</v>
+      </c>
+      <c r="M4">
+        <v>411.90176000000002</v>
+      </c>
+      <c r="N4">
+        <v>28.893090000000001</v>
+      </c>
+      <c r="O4">
+        <v>53.219340000000003</v>
+      </c>
+      <c r="P4">
+        <v>386.18369999999999</v>
+      </c>
+      <c r="Q4">
+        <v>1096.88042</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="12"/>
+        <v>0.70515740762381096</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="13"/>
+        <v>8.7860853926596941E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="14"/>
+        <v>0.17477697024755848</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="15"/>
+        <v>3.488032517571344</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="16"/>
+        <v>0.32074922291296626</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="17"/>
+        <v>1.1563137425312331</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="18"/>
+        <v>6.4308216212615728</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="19"/>
+        <v>12.448988991033934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5" s="27">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>14085541.815133095</v>
+      </c>
+      <c r="C5">
+        <v>488080402.43135613</v>
+      </c>
+      <c r="D5">
+        <v>279254055.75351077</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="9"/>
+        <v>0.14085541815133096</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="10"/>
+        <v>4.8808040243135613</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="11"/>
+        <v>2.7925405575351077</v>
+      </c>
+      <c r="J5">
+        <v>230.18104</v>
+      </c>
+      <c r="K5">
+        <v>6.2236399999999996</v>
+      </c>
+      <c r="L5">
+        <v>14.6318</v>
+      </c>
+      <c r="M5">
+        <v>268.02996000000002</v>
+      </c>
+      <c r="N5">
+        <v>17.362179999999999</v>
+      </c>
+      <c r="O5">
+        <v>57.036940000000001</v>
+      </c>
+      <c r="P5">
+        <v>470.38986</v>
+      </c>
+      <c r="Q5">
+        <v>1246.69983</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="12"/>
+        <v>0.67246196274569381</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="13"/>
+        <v>3.4545838051466507E-2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="14"/>
+        <v>0.16615716556893026</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="15"/>
+        <v>2.2697092048437635</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="16"/>
+        <v>0.19274178507992895</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="17"/>
+        <v>1.239259967409017</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="18"/>
+        <v>7.8330423632851529</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="19"/>
+        <v>14.149356826693905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" s="27">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>8250404.5971619561</v>
+      </c>
+      <c r="C6">
+        <v>345508610.29670459</v>
+      </c>
+      <c r="D6">
+        <v>167360985.10613346</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="9"/>
+        <v>8.2504045971619561E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="10"/>
+        <v>3.4550861029670461</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="11"/>
+        <v>1.6736098510613346</v>
+      </c>
+      <c r="J6">
+        <v>233.31662</v>
+      </c>
+      <c r="K6">
+        <v>18.411660000000001</v>
+      </c>
+      <c r="L6">
+        <v>16.828949999999999</v>
+      </c>
+      <c r="M6">
+        <v>195.39886000000001</v>
+      </c>
+      <c r="N6">
+        <v>14.795199999999999</v>
+      </c>
+      <c r="O6">
+        <v>67.167689999999993</v>
+      </c>
+      <c r="P6">
+        <v>517.12613999999996</v>
+      </c>
+      <c r="Q6">
+        <v>1356.93424</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="12"/>
+        <v>0.68162239698973992</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="13"/>
+        <v>0.1021984280290415</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="14"/>
+        <v>0.19110776743129682</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="15"/>
+        <v>1.6546605131679228</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="16"/>
+        <v>0.16424511545293072</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="17"/>
+        <v>1.4593740358500813</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="18"/>
+        <v>8.6113058682475181</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="19"/>
+        <v>15.400456701849961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" s="27">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>26253510.784763653</v>
+      </c>
+      <c r="C7">
+        <v>626524460.76181734</v>
+      </c>
+      <c r="D7">
+        <v>316822028.45341903</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="9"/>
+        <v>0.26253510784763651</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="10"/>
+        <v>6.2652446076181736</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="11"/>
+        <v>3.1682202845341902</v>
+      </c>
+      <c r="J7">
+        <v>245.2963</v>
+      </c>
+      <c r="K7">
+        <v>6.1664700000000003</v>
+      </c>
+      <c r="L7">
+        <v>14.04617</v>
+      </c>
+      <c r="M7">
+        <v>153.36926</v>
+      </c>
+      <c r="N7">
+        <v>14.49851</v>
+      </c>
+      <c r="O7">
+        <v>45.821739999999998</v>
+      </c>
+      <c r="P7">
+        <v>293.69269000000003</v>
+      </c>
+      <c r="Q7">
+        <v>1213.46164</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="12"/>
+        <v>0.71662041040502955</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="13"/>
+        <v>3.4228501964963701E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="14"/>
+        <v>0.15950681353622528</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="15"/>
+        <v>1.298748920315014</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="16"/>
+        <v>0.16095148756660746</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="17"/>
+        <v>0.99558370450841938</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="18"/>
+        <v>4.8906396123359759</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="19"/>
+        <v>13.772121666099194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8" s="27">
+        <v>118</v>
+      </c>
+      <c r="B8">
+        <v>3070137.0718944045</v>
+      </c>
+      <c r="C8">
+        <v>238013772.01546454</v>
+      </c>
+      <c r="D8">
+        <v>44796090.912641078</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="9"/>
+        <v>3.0701370718944045E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="10"/>
+        <v>2.3801377201546456</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="11"/>
+        <v>0.44796090912641079</v>
+      </c>
+      <c r="J8">
+        <v>240.33661000000001</v>
+      </c>
+      <c r="K8">
+        <v>307.77361999999999</v>
+      </c>
+      <c r="L8">
+        <v>206.95966000000001</v>
+      </c>
+      <c r="M8">
+        <v>159.14507</v>
+      </c>
+      <c r="N8">
+        <v>22.12143</v>
+      </c>
+      <c r="O8">
+        <v>49.874769999999998</v>
+      </c>
+      <c r="P8">
+        <v>255.97048000000001</v>
+      </c>
+      <c r="Q8">
+        <v>962.81002000000001</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="12"/>
+        <v>0.70213093346109801</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="13"/>
+        <v>1.7083728546370922</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="14"/>
+        <v>2.3502119009766069</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="15"/>
+        <v>1.3476591582691169</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="16"/>
+        <v>0.24557537744227353</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="17"/>
+        <v>1.0836451928299837</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="18"/>
+        <v>4.2624805168853666</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="19"/>
+        <v>10.927363749858133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9" s="27">
+        <v>124</v>
+      </c>
+      <c r="B9">
+        <v>2020489.2664528184</v>
+      </c>
+      <c r="C9">
+        <v>249337208.22024041</v>
+      </c>
+      <c r="D9">
+        <v>61862302.513306774</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="9"/>
+        <v>2.0204892664528185E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="10"/>
+        <v>2.4933720822024044</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="11"/>
+        <v>0.61862302513306777</v>
+      </c>
+      <c r="J9">
+        <v>151.22404</v>
+      </c>
+      <c r="K9">
+        <v>550.25509</v>
+      </c>
+      <c r="L9">
+        <v>357.96931000000001</v>
+      </c>
+      <c r="M9">
+        <v>149.02681000000001</v>
+      </c>
+      <c r="N9">
+        <v>24.758600000000001</v>
+      </c>
+      <c r="O9">
+        <v>49.189579999999999</v>
+      </c>
+      <c r="P9">
+        <v>216.43924000000001</v>
+      </c>
+      <c r="Q9">
+        <v>759.12034000000006</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="12"/>
+        <v>0.44179318484586444</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="13"/>
+        <v>3.0543256400008878</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="14"/>
+        <v>4.0650614353849646</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="15"/>
+        <v>1.2619765433144212</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="16"/>
+        <v>0.27485124333925404</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="17"/>
+        <v>1.0687578489951113</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="18"/>
+        <v>3.6041970292413246</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="19"/>
+        <v>8.6155980024968795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10" s="27">
+        <v>142</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>149700000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="10"/>
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>149.91867999999999</v>
+      </c>
+      <c r="K10">
+        <v>1096.37501</v>
+      </c>
+      <c r="L10">
+        <v>697.92058999999995</v>
+      </c>
+      <c r="M10">
+        <v>144.15521000000001</v>
+      </c>
+      <c r="N10">
+        <v>32.083190000000002</v>
+      </c>
+      <c r="O10">
+        <v>55.05639</v>
+      </c>
+      <c r="P10">
+        <v>199.68508</v>
+      </c>
+      <c r="Q10">
+        <v>369.44877000000002</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="12"/>
+        <v>0.43797964334961553</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="13"/>
+        <v>6.0856980061724277</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="14"/>
+        <v>7.9255120372473309</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="15"/>
+        <v>1.2207232619188755</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="16"/>
+        <v>0.35616329928952045</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="17"/>
+        <v>1.1962279196089083</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="18"/>
+        <v>3.3252028242190104</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="19"/>
+        <v>4.1930401770514134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11" s="27">
+        <v>160</v>
+      </c>
+      <c r="B11">
+        <v>573516.54256544111</v>
+      </c>
+      <c r="C11">
+        <v>80388212.394038752</v>
+      </c>
+      <c r="D11">
+        <v>3938271.0633958043</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="9"/>
+        <v>5.7351654256544114E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="10"/>
+        <v>0.80388212394038749</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="11"/>
+        <v>3.938271063395804E-2</v>
+      </c>
+      <c r="J11">
+        <v>144.38203999999999</v>
+      </c>
+      <c r="K11">
+        <v>1241.4745</v>
+      </c>
+      <c r="L11">
+        <v>781.32570999999996</v>
+      </c>
+      <c r="M11">
+        <v>123.64282</v>
+      </c>
+      <c r="N11">
+        <v>32.437150000000003</v>
+      </c>
+      <c r="O11">
+        <v>53.092359999999999</v>
+      </c>
+      <c r="P11">
+        <v>149.9332</v>
+      </c>
+      <c r="Q11">
+        <v>218.5669</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="12"/>
+        <v>0.4218046369224297</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="13"/>
+        <v>6.891108261728724</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="14"/>
+        <v>8.8726517147399502</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="15"/>
+        <v>1.0470219324244221</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="16"/>
+        <v>0.36009269538188282</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="17"/>
+        <v>1.1535548071700163</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="18"/>
+        <v>2.4967228402051553</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="19"/>
+        <v>2.480614005220747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12" s="27">
+        <v>190</v>
+      </c>
+      <c r="B12">
+        <v>812884.0841179454</v>
+      </c>
+      <c r="C12">
+        <v>194563116.64881322</v>
+      </c>
+      <c r="D12">
+        <v>123999.26706883915</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="9"/>
+        <v>8.1288408411794542E-3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="10"/>
+        <v>1.9456311664881323</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="11"/>
+        <v>1.2399926706883914E-3</v>
+      </c>
+      <c r="J12">
+        <v>156.21600000000001</v>
+      </c>
+      <c r="K12">
+        <v>246.29285999999999</v>
+      </c>
+      <c r="L12">
+        <v>75.397139999999993</v>
+      </c>
+      <c r="M12">
+        <v>873.50205000000005</v>
+      </c>
+      <c r="N12">
+        <v>138.00036</v>
+      </c>
+      <c r="O12">
+        <v>79.855009999999993</v>
+      </c>
+      <c r="P12">
+        <v>686.97014999999999</v>
+      </c>
+      <c r="Q12">
+        <v>38.09122</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="12"/>
+        <v>0.45637693692009257</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="13"/>
+        <v>1.3671088390061945</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="14"/>
+        <v>0.85620190779014294</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="15"/>
+        <v>7.3969180286222374</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="16"/>
+        <v>1.5319755772646537</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="17"/>
+        <v>1.7350355241716457</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="18"/>
+        <v>11.43958819023513</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="19"/>
+        <v>0.43231437975258202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13" s="27">
+        <v>250</v>
+      </c>
+      <c r="B13">
+        <v>910689.07563025213</v>
+      </c>
+      <c r="C13">
+        <v>204291016.8067227</v>
+      </c>
+      <c r="D13">
+        <v>48294.117647058825</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="9"/>
+        <v>9.1068907563025218E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="10"/>
+        <v>2.0429101680672268</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="11"/>
+        <v>4.8294117647058827E-4</v>
+      </c>
+      <c r="J13">
+        <v>125.67610999999999</v>
+      </c>
+      <c r="K13">
+        <v>333.11523999999997</v>
+      </c>
+      <c r="L13">
+        <v>225.75692000000001</v>
+      </c>
+      <c r="M13">
+        <v>871.65575000000001</v>
+      </c>
+      <c r="N13">
+        <v>109.51555999999999</v>
+      </c>
+      <c r="O13">
+        <v>70.212580000000003</v>
+      </c>
+      <c r="P13">
+        <v>564.08794999999998</v>
+      </c>
+      <c r="Q13">
+        <v>4.32944</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="12"/>
+        <v>0.3671562332016734</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="13"/>
+        <v>1.849037722862408</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="14"/>
+        <v>2.5636715875539404</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="15"/>
+        <v>7.3812833432128038</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="16"/>
+        <v>1.2157588809946713</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="17"/>
+        <v>1.5255313416621403</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="18"/>
+        <v>9.3933249517085198</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="19"/>
+        <v>4.9136760867097944E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A14" s="27">
+        <v>262</v>
+      </c>
+      <c r="B14">
+        <v>551239.73445622961</v>
+      </c>
+      <c r="C14">
+        <v>207116592.46733025</v>
+      </c>
+      <c r="D14">
+        <v>52167.798213523311</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="9"/>
+        <v>5.5123973445622958E-3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="10"/>
+        <v>2.0711659246733025</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="11"/>
+        <v>5.2167798213523307E-4</v>
+      </c>
+      <c r="J14">
+        <v>152.93835000000001</v>
+      </c>
+      <c r="K14">
+        <v>73.509829999999994</v>
+      </c>
+      <c r="L14">
+        <v>20.068159999999999</v>
+      </c>
+      <c r="M14">
+        <v>1234.64678</v>
+      </c>
+      <c r="N14">
+        <v>126.19799999999999</v>
+      </c>
+      <c r="O14">
+        <v>70.480800000000002</v>
+      </c>
+      <c r="P14">
+        <v>755.15364</v>
+      </c>
+      <c r="Q14">
+        <v>2.6407699999999998</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="12"/>
+        <v>0.44680145254399706</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="13"/>
+        <v>0.40803431470503337</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="14"/>
+        <v>0.22789189189189188</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="15"/>
+        <v>10.455134050300618</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="16"/>
+        <v>1.4009547069271757</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="17"/>
+        <v>1.5313590439978273</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="18"/>
+        <v>12.57499567041897</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="19"/>
+        <v>2.9971285892634206E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A15" s="28">
+        <v>268</v>
+      </c>
+      <c r="B15">
+        <v>338449.2179518445</v>
+      </c>
+      <c r="C15">
+        <v>85944486.115596801</v>
+      </c>
+      <c r="D15">
+        <v>17064.666451353507</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="9"/>
+        <v>3.384492179518445E-3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="10"/>
+        <v>0.85944486115596797</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="11"/>
+        <v>1.7064666451353506E-4</v>
+      </c>
+      <c r="J15">
+        <v>159.30466000000001</v>
+      </c>
+      <c r="K15">
+        <v>611.23539000000005</v>
+      </c>
+      <c r="L15">
+        <v>385.78206999999998</v>
+      </c>
+      <c r="M15">
+        <v>752.67700000000002</v>
+      </c>
+      <c r="N15">
+        <v>65.558880000000002</v>
+      </c>
+      <c r="O15">
+        <v>72.151300000000006</v>
+      </c>
+      <c r="P15">
+        <v>504.78872999999999</v>
+      </c>
+      <c r="Q15">
+        <v>2.2404999999999999</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="12"/>
+        <v>0.46540029681912737</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="13"/>
+        <v>3.3928117298341438</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="14"/>
+        <v>4.3809001816942992</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="15"/>
+        <v>6.3737573037513764</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="16"/>
+        <v>0.72778507992895203</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="17"/>
+        <v>1.5676545355784901</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="18"/>
+        <v>8.4058604209684944</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="19"/>
+        <v>2.5428441720576553E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A16" s="27">
+        <v>292</v>
+      </c>
+      <c r="B16">
+        <v>1034372.8902691219</v>
+      </c>
+      <c r="C16">
+        <v>154861248.88961533</v>
+      </c>
+      <c r="D16">
+        <v>53534378.220115557</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="9"/>
+        <v>1.0343728902691219E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="10"/>
+        <v>1.5486124888961532</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="11"/>
+        <v>0.53534378220115553</v>
+      </c>
+      <c r="J16">
+        <v>132.81130999999999</v>
+      </c>
+      <c r="K16">
+        <v>155.08196000000001</v>
+      </c>
+      <c r="L16">
+        <v>71.793210000000002</v>
+      </c>
+      <c r="M16">
+        <v>697.00572999999997</v>
+      </c>
+      <c r="N16">
+        <v>125.57468</v>
+      </c>
+      <c r="O16">
+        <v>74.485420000000005</v>
+      </c>
+      <c r="P16">
+        <v>514.39811999999995</v>
+      </c>
+      <c r="Q16">
+        <v>247.61454000000001</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="12"/>
+        <v>0.38800134970902378</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="13"/>
+        <v>0.86082040009769312</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="14"/>
+        <v>0.81527606177606182</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="15"/>
+        <v>5.9023264459310694</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="16"/>
+        <v>1.394035079928952</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="17"/>
+        <v>1.6183687126561652</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="18"/>
+        <v>8.5658782388596535</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="19"/>
+        <v>2.8102887299965951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" s="27">
+        <v>304</v>
+      </c>
+      <c r="B17">
+        <v>1138110.1116040314</v>
+      </c>
+      <c r="C17">
+        <v>171286604.56420305</v>
+      </c>
+      <c r="D17">
+        <v>79465285.324192896</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="9"/>
+        <v>1.1381101116040314E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="10"/>
+        <v>1.7128660456420306</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="11"/>
+        <v>0.79465285324192891</v>
+      </c>
+      <c r="J17">
+        <v>161.19392999999999</v>
+      </c>
+      <c r="K17">
+        <v>14.924440000000001</v>
+      </c>
+      <c r="L17">
+        <v>13.595649999999999</v>
+      </c>
+      <c r="M17">
+        <v>535.43385999999998</v>
+      </c>
+      <c r="N17">
+        <v>95.511970000000005</v>
+      </c>
+      <c r="O17">
+        <v>74.048479999999998</v>
+      </c>
+      <c r="P17">
+        <v>207.75909999999999</v>
+      </c>
+      <c r="Q17">
+        <v>800.16084000000001</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="12"/>
+        <v>0.47091970107743003</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="13"/>
+        <v>8.2841759364106662E-2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="14"/>
+        <v>0.154390756302521</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="15"/>
+        <v>4.5341168600220172</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="16"/>
+        <v>1.0603016207815277</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="17"/>
+        <v>1.6088751765344922</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="18"/>
+        <v>3.4596533004729233</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="19"/>
+        <v>9.081385086823289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A18" s="27">
+        <v>328</v>
+      </c>
+      <c r="B18">
+        <v>1230258.9025998663</v>
+      </c>
+      <c r="C18">
+        <v>256175240.74509025</v>
+      </c>
+      <c r="D18">
+        <v>104794500.35230988</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="9"/>
+        <v>1.2302589025998662E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="10"/>
+        <v>2.5617524074509026</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="11"/>
+        <v>1.0479450035230988</v>
+      </c>
+      <c r="J18">
+        <v>167.89485999999999</v>
+      </c>
+      <c r="K18">
+        <v>13.941839999999999</v>
+      </c>
+      <c r="L18">
+        <v>10.688029999999999</v>
+      </c>
+      <c r="M18">
+        <v>389.22098</v>
+      </c>
+      <c r="N18">
+        <v>46.14246</v>
+      </c>
+      <c r="O18">
+        <v>59.230130000000003</v>
+      </c>
+      <c r="P18">
+        <v>172.81607</v>
+      </c>
+      <c r="Q18">
+        <v>1044.1938299999999</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="12"/>
+        <v>0.49049612031691869</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="13"/>
+        <v>7.7387597415573162E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="14"/>
+        <v>0.12137213263683851</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="15"/>
+        <v>3.2959690066898126</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="16"/>
+        <v>0.51223867673179402</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="17"/>
+        <v>1.2869121129820751</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="18"/>
+        <v>2.8777737627389595</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="19"/>
+        <v>11.851025195778004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" s="27">
+        <v>358</v>
+      </c>
+      <c r="B19">
+        <v>3178574.3417403498</v>
+      </c>
+      <c r="C19">
+        <v>521205282.88035494</v>
+      </c>
+      <c r="D19">
+        <v>184126142.77790466</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="9"/>
+        <v>3.1785743417403499E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="10"/>
+        <v>5.2120528288035493</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="11"/>
+        <v>1.8412614277790467</v>
+      </c>
+      <c r="J19">
+        <v>138.49118000000001</v>
+      </c>
+      <c r="K19">
+        <v>21.34524</v>
+      </c>
+      <c r="L19">
+        <v>15.97012</v>
+      </c>
+      <c r="M19">
+        <v>590.23672999999997</v>
+      </c>
+      <c r="N19">
+        <v>31.029720000000001</v>
+      </c>
+      <c r="O19">
+        <v>82.572810000000004</v>
+      </c>
+      <c r="P19">
+        <v>352.77694000000002</v>
+      </c>
+      <c r="Q19">
+        <v>1715.59926</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="12"/>
+        <v>0.40459479514805902</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="13"/>
+        <v>0.11848198228202225</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="14"/>
+        <v>0.18135498523733817</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="15"/>
+        <v>4.9981940045727828</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="16"/>
+        <v>0.34446847246891654</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="17"/>
+        <v>1.7940860401955461</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="18"/>
+        <v>5.8745244121761147</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="19"/>
+        <v>19.471107252298264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20" s="27">
+        <v>400</v>
+      </c>
+      <c r="B20">
+        <v>2810960.4608949572</v>
+      </c>
+      <c r="C20">
+        <v>465163760.55559945</v>
+      </c>
+      <c r="D20">
+        <v>168055278.98350567</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="9"/>
+        <v>2.8109604608949571E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="10"/>
+        <v>4.6516376055559947</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="11"/>
+        <v>1.6805527898350567</v>
+      </c>
+      <c r="J20">
+        <v>158.87638999999999</v>
+      </c>
+      <c r="K20">
+        <v>5.9881200000000003</v>
+      </c>
+      <c r="L20">
+        <v>9.9298300000000008</v>
+      </c>
+      <c r="M20">
+        <v>348.17169000000001</v>
+      </c>
+      <c r="N20">
+        <v>11.494809999999999</v>
+      </c>
+      <c r="O20">
+        <v>49.975940000000001</v>
+      </c>
+      <c r="P20">
+        <v>190.30806999999999</v>
+      </c>
+      <c r="Q20">
+        <v>1151.2677799999999</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="12"/>
+        <v>0.46414912823988591</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="13"/>
+        <v>3.3238526610271102E-2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="14"/>
+        <v>0.11276209402679992</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="15"/>
+        <v>2.9483587941400629</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="16"/>
+        <v>0.12760668294849023</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="17"/>
+        <v>1.0858433460076047</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="18"/>
+        <v>3.1690546526343835</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="19"/>
+        <v>13.066255589603903</v>
       </c>
     </row>
   </sheetData>
@@ -49513,6 +53356,3609 @@
       <c r="AF40">
         <f t="shared" si="10"/>
         <v>0.24879768661317581</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF24721B-5949-4FBC-957D-C7588589BDA9}">
+  <dimension ref="A1:Z20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="27">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>28236671.528691877</v>
+      </c>
+      <c r="C2">
+        <v>45239656.337827742</v>
+      </c>
+      <c r="D2">
+        <v>22823672.133480381</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:H2" si="0">B2/100000000</f>
+        <v>0.28236671528691876</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.45239656337827744</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0.2282367213348038</v>
+      </c>
+      <c r="J2">
+        <v>42.399160000000002</v>
+      </c>
+      <c r="K2">
+        <v>1745.3835799999999</v>
+      </c>
+      <c r="L2">
+        <v>1025.25548</v>
+      </c>
+      <c r="M2">
+        <v>105.43788000000001</v>
+      </c>
+      <c r="N2">
+        <v>37.193210000000001</v>
+      </c>
+      <c r="O2">
+        <v>59.13288</v>
+      </c>
+      <c r="P2">
+        <v>192.09998999999999</v>
+      </c>
+      <c r="Q2">
+        <v>985.75447999999994</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2" si="1">J2/342.296</f>
+        <v>0.12386694556757895</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2" si="2">K2/180.156</f>
+        <v>9.6881790226248352</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2" si="3">L2/88.06</f>
+        <v>11.64269225528049</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2" si="4">M2/118.09</f>
+        <v>0.89286036074180708</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2" si="5">N2/90.08</f>
+        <v>0.41289087477797515</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2" si="6">O2/46.025</f>
+        <v>1.2847991309071158</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2" si="7">P2/60.052</f>
+        <v>3.198894125091587</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ref="Z2" si="8">Q2/88.11</f>
+        <v>11.187770741119055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" s="27">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>126909545.22604644</v>
+      </c>
+      <c r="C3">
+        <v>2015589589.4634538</v>
+      </c>
+      <c r="D3">
+        <v>613580865.31049967</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F20" si="9">B3/100000000</f>
+        <v>1.2690954522604645</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G20" si="10">C3/100000000</f>
+        <v>20.155895894634536</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H20" si="11">D3/100000000</f>
+        <v>6.1358086531049967</v>
+      </c>
+      <c r="J3">
+        <v>36.945990000000002</v>
+      </c>
+      <c r="K3">
+        <v>16.54879</v>
+      </c>
+      <c r="L3">
+        <v>17.720269999999999</v>
+      </c>
+      <c r="M3">
+        <v>615.66358000000002</v>
+      </c>
+      <c r="N3">
+        <v>27.23583</v>
+      </c>
+      <c r="O3">
+        <v>68.184460000000001</v>
+      </c>
+      <c r="P3">
+        <v>1056.0139999999999</v>
+      </c>
+      <c r="Q3">
+        <v>677.68007999999998</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S20" si="12">J3/342.296</f>
+        <v>0.10793579241358357</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T20" si="13">K3/180.156</f>
+        <v>9.1858111858611424E-2</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U20" si="14">L3/88.06</f>
+        <v>0.20122950261185554</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V20" si="15">M3/118.09</f>
+        <v>5.2135115589804384</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W20" si="16">N3/90.08</f>
+        <v>0.30235157637655419</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X20" si="17">O3/46.025</f>
+        <v>1.4814657251493755</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y20" si="18">P3/60.052</f>
+        <v>17.584993006061413</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z20" si="19">Q3/88.11</f>
+        <v>7.6912958801498128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" s="27">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>36084213.464849018</v>
+      </c>
+      <c r="C4">
+        <v>606738589.30814683</v>
+      </c>
+      <c r="D4">
+        <v>250677197.22700414</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="9"/>
+        <v>0.36084213464849019</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="10"/>
+        <v>6.0673858930814681</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="11"/>
+        <v>2.5067719722700414</v>
+      </c>
+      <c r="J4">
+        <v>42.936669999999999</v>
+      </c>
+      <c r="K4">
+        <v>6.9320000000000004</v>
+      </c>
+      <c r="L4">
+        <v>14.996729999999999</v>
+      </c>
+      <c r="M4">
+        <v>382.65226999999999</v>
+      </c>
+      <c r="N4">
+        <v>24.720949999999998</v>
+      </c>
+      <c r="O4">
+        <v>52.115969999999997</v>
+      </c>
+      <c r="P4">
+        <v>398.58945</v>
+      </c>
+      <c r="Q4">
+        <v>987.22414000000003</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="12"/>
+        <v>0.12543725313763526</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="13"/>
+        <v>3.8477763715890671E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="14"/>
+        <v>0.17030127186009539</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="15"/>
+        <v>3.2403443983402487</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="16"/>
+        <v>0.27443328152753105</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="17"/>
+        <v>1.1323404671374253</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="18"/>
+        <v>6.6374050822620392</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="19"/>
+        <v>11.204450573147202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5" s="27">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>22346484.391975086</v>
+      </c>
+      <c r="C5">
+        <v>349392202.50597525</v>
+      </c>
+      <c r="D5">
+        <v>275091313.10204971</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="9"/>
+        <v>0.22346484391975086</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="10"/>
+        <v>3.4939220250597525</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="11"/>
+        <v>2.7509131310204973</v>
+      </c>
+      <c r="J5">
+        <v>44.038629999999998</v>
+      </c>
+      <c r="K5">
+        <v>15.871729999999999</v>
+      </c>
+      <c r="L5">
+        <v>12.010669999999999</v>
+      </c>
+      <c r="M5">
+        <v>298.79691000000003</v>
+      </c>
+      <c r="N5">
+        <v>16.666989999999998</v>
+      </c>
+      <c r="O5">
+        <v>51.960369999999998</v>
+      </c>
+      <c r="P5">
+        <v>729.49935000000005</v>
+      </c>
+      <c r="Q5">
+        <v>977.05595000000005</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="12"/>
+        <v>0.12865657208965339</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="13"/>
+        <v>8.8099924509869212E-2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="14"/>
+        <v>0.13639189189189188</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="15"/>
+        <v>2.5302473537132695</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="16"/>
+        <v>0.18502431172291295</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="17"/>
+        <v>1.1289596958174906</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="18"/>
+        <v>12.147794411510025</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="19"/>
+        <v>11.089047213710137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" s="27">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>11479133.812390754</v>
+      </c>
+      <c r="C6">
+        <v>51998762.866576038</v>
+      </c>
+      <c r="D6">
+        <v>230582103.32103321</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="9"/>
+        <v>0.11479133812390754</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="10"/>
+        <v>0.51998762866576043</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="11"/>
+        <v>2.3058210332103322</v>
+      </c>
+      <c r="J6">
+        <v>39.706600000000002</v>
+      </c>
+      <c r="K6">
+        <v>7.2825199999999999</v>
+      </c>
+      <c r="L6">
+        <v>16.5962</v>
+      </c>
+      <c r="M6">
+        <v>193.08438000000001</v>
+      </c>
+      <c r="N6">
+        <v>25.546040000000001</v>
+      </c>
+      <c r="O6">
+        <v>96.050229999999999</v>
+      </c>
+      <c r="P6">
+        <v>392.47528999999997</v>
+      </c>
+      <c r="Q6">
+        <v>903.68967999999995</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="12"/>
+        <v>0.11600077126229931</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="13"/>
+        <v>4.0423410821732272E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="14"/>
+        <v>0.18846468317056553</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="15"/>
+        <v>1.635061224489796</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="16"/>
+        <v>0.28359280639431617</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="17"/>
+        <v>2.0869142857142857</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="18"/>
+        <v>6.5355906547658691</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="19"/>
+        <v>10.256380433548973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" s="27">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>21531091.40935494</v>
+      </c>
+      <c r="C7">
+        <v>50637542.036074594</v>
+      </c>
+      <c r="D7">
+        <v>276831366.55457044</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="9"/>
+        <v>0.21531091409354941</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="10"/>
+        <v>0.5063754203607459</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="11"/>
+        <v>2.7683136655457043</v>
+      </c>
+      <c r="J7">
+        <v>41.089460000000003</v>
+      </c>
+      <c r="K7">
+        <v>24.330459999999999</v>
+      </c>
+      <c r="L7">
+        <v>25.576419999999999</v>
+      </c>
+      <c r="M7">
+        <v>149.47457</v>
+      </c>
+      <c r="N7">
+        <v>26.327380000000002</v>
+      </c>
+      <c r="O7">
+        <v>53.358429999999998</v>
+      </c>
+      <c r="P7">
+        <v>370.53629000000001</v>
+      </c>
+      <c r="Q7">
+        <v>1003.9680499999999</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="12"/>
+        <v>0.12004072498656135</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="13"/>
+        <v>0.13505217700215369</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="14"/>
+        <v>0.29044310697251874</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="15"/>
+        <v>1.2657682276229993</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="16"/>
+        <v>0.29226665186500889</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="17"/>
+        <v>1.1593357957631722</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="18"/>
+        <v>6.1702572770265771</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="19"/>
+        <v>11.394484734990353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8" s="27">
+        <v>118</v>
+      </c>
+      <c r="B8">
+        <v>7622178.2303659953</v>
+      </c>
+      <c r="C8">
+        <v>38162942.844020724</v>
+      </c>
+      <c r="D8">
+        <v>97114878.925613299</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="9"/>
+        <v>7.622178230365996E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="10"/>
+        <v>0.38162942844020725</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="11"/>
+        <v>0.97114878925613302</v>
+      </c>
+      <c r="J8">
+        <v>43.734059999999999</v>
+      </c>
+      <c r="K8">
+        <v>181.22480999999999</v>
+      </c>
+      <c r="L8">
+        <v>144.25386</v>
+      </c>
+      <c r="M8">
+        <v>169.26971</v>
+      </c>
+      <c r="N8">
+        <v>23.66386</v>
+      </c>
+      <c r="O8">
+        <v>50.52373</v>
+      </c>
+      <c r="P8">
+        <v>227.82138</v>
+      </c>
+      <c r="Q8">
+        <v>1157.9854800000001</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="12"/>
+        <v>0.12776678664080213</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="13"/>
+        <v>1.0059326916672218</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="14"/>
+        <v>1.6381315012491482</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="15"/>
+        <v>1.4333957998137015</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="16"/>
+        <v>0.26269826820603909</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="17"/>
+        <v>1.0977453557848995</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="18"/>
+        <v>3.7937350962499168</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="19"/>
+        <v>13.142497786857339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9" s="27">
+        <v>124</v>
+      </c>
+      <c r="B9">
+        <v>920482.83666540927</v>
+      </c>
+      <c r="C9">
+        <v>112343266.69181441</v>
+      </c>
+      <c r="D9">
+        <v>33736250.471520185</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="9"/>
+        <v>9.2048283666540925E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="10"/>
+        <v>1.123432666918144</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="11"/>
+        <v>0.33736250471520185</v>
+      </c>
+      <c r="J9">
+        <v>41.90399</v>
+      </c>
+      <c r="K9">
+        <v>727.36734000000001</v>
+      </c>
+      <c r="L9">
+        <v>470.03532999999999</v>
+      </c>
+      <c r="M9">
+        <v>121.21081</v>
+      </c>
+      <c r="N9">
+        <v>30.128589999999999</v>
+      </c>
+      <c r="O9">
+        <v>51.07564</v>
+      </c>
+      <c r="P9">
+        <v>250.2647</v>
+      </c>
+      <c r="Q9">
+        <v>1117.8498</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="12"/>
+        <v>0.1224203321102204</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="13"/>
+        <v>4.0374305601811766</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="14"/>
+        <v>5.3376712468771288</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="15"/>
+        <v>1.026427385892116</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="16"/>
+        <v>0.33446480905861459</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="17"/>
+        <v>1.1097368821292777</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="18"/>
+        <v>4.1674665290081929</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="19"/>
+        <v>12.686979911474292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10" s="27">
+        <v>142</v>
+      </c>
+      <c r="B10">
+        <v>4663182.8248031493</v>
+      </c>
+      <c r="C10">
+        <v>28819998.769685041</v>
+      </c>
+      <c r="D10">
+        <v>39616818.405511811</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="9"/>
+        <v>4.6631828248031491E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="10"/>
+        <v>0.2881999876968504</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="11"/>
+        <v>0.39616818405511811</v>
+      </c>
+      <c r="J10">
+        <v>87.462760000000003</v>
+      </c>
+      <c r="K10">
+        <v>1204.6689200000001</v>
+      </c>
+      <c r="L10">
+        <v>764.63539000000003</v>
+      </c>
+      <c r="M10">
+        <v>114.09963999999999</v>
+      </c>
+      <c r="N10">
+        <v>33.94482</v>
+      </c>
+      <c r="O10">
+        <v>56.66498</v>
+      </c>
+      <c r="P10">
+        <v>202.27164999999999</v>
+      </c>
+      <c r="Q10">
+        <v>1181.9626499999999</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="12"/>
+        <v>0.25551791431977006</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="13"/>
+        <v>6.686809875885344</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="14"/>
+        <v>8.6831182148535095</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="15"/>
+        <v>0.96620916250317546</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="16"/>
+        <v>0.37682970692717588</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="17"/>
+        <v>1.2311782726778926</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="18"/>
+        <v>3.3682749950043296</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="19"/>
+        <v>13.414625468164793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11" s="27">
+        <v>160</v>
+      </c>
+      <c r="B11">
+        <v>992641.71220817231</v>
+      </c>
+      <c r="C11">
+        <v>24630834.83868017</v>
+      </c>
+      <c r="D11">
+        <v>14276523.449111653</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="9"/>
+        <v>9.9264171220817231E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="10"/>
+        <v>0.24630834838680171</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="11"/>
+        <v>0.14276523449111653</v>
+      </c>
+      <c r="J11">
+        <v>94.98657</v>
+      </c>
+      <c r="K11">
+        <v>1358.0922499999999</v>
+      </c>
+      <c r="L11">
+        <v>843.22056999999995</v>
+      </c>
+      <c r="M11">
+        <v>98.117859999999993</v>
+      </c>
+      <c r="N11">
+        <v>32.778950000000002</v>
+      </c>
+      <c r="O11">
+        <v>53.543410000000002</v>
+      </c>
+      <c r="P11">
+        <v>150.23500000000001</v>
+      </c>
+      <c r="Q11">
+        <v>1133.59573</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="12"/>
+        <v>0.27749833477458108</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="13"/>
+        <v>7.5384236439530179</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="14"/>
+        <v>9.5755231660231654</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="15"/>
+        <v>0.83087357100516546</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="16"/>
+        <v>0.3638871003552398</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="17"/>
+        <v>1.163354915806627</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="18"/>
+        <v>2.5017484846466398</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="19"/>
+        <v>12.865687549653842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12" s="27">
+        <v>190</v>
+      </c>
+      <c r="B12">
+        <v>1107983.4938101789</v>
+      </c>
+      <c r="C12">
+        <v>241846052.26960111</v>
+      </c>
+      <c r="D12">
+        <v>85964.236588720771</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="9"/>
+        <v>1.1079834938101789E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="10"/>
+        <v>2.418460522696011</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="11"/>
+        <v>8.5964236588720766E-4</v>
+      </c>
+      <c r="J12">
+        <v>39.970039999999997</v>
+      </c>
+      <c r="K12">
+        <v>1010.35394</v>
+      </c>
+      <c r="L12">
+        <v>704.57066999999995</v>
+      </c>
+      <c r="M12">
+        <v>432.04712999999998</v>
+      </c>
+      <c r="N12">
+        <v>38.035589999999999</v>
+      </c>
+      <c r="O12">
+        <v>111.88970999999999</v>
+      </c>
+      <c r="P12">
+        <v>405.47158999999999</v>
+      </c>
+      <c r="Q12">
+        <v>1115.4679599999999</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="12"/>
+        <v>0.11677039755065791</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="13"/>
+        <v>5.6082169897200203</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="14"/>
+        <v>8.0010296388825797</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="15"/>
+        <v>3.6586258785671943</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="16"/>
+        <v>0.42224234014209594</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="17"/>
+        <v>2.4310637696903856</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="18"/>
+        <v>6.7520080929860784</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="19"/>
+        <v>12.65994733855408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13" s="27">
+        <v>250</v>
+      </c>
+      <c r="B13">
+        <v>267063.15195350879</v>
+      </c>
+      <c r="C13">
+        <v>76160973.723268598</v>
+      </c>
+      <c r="D13">
+        <v>71963.124777891586</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="9"/>
+        <v>2.6706315195350878E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="10"/>
+        <v>0.76160973723268599</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="11"/>
+        <v>7.1963124777891586E-4</v>
+      </c>
+      <c r="J13">
+        <v>95.320179999999993</v>
+      </c>
+      <c r="K13">
+        <v>1195.5163</v>
+      </c>
+      <c r="L13">
+        <v>680.19272999999998</v>
+      </c>
+      <c r="M13">
+        <v>367.09071</v>
+      </c>
+      <c r="N13">
+        <v>49.424630000000001</v>
+      </c>
+      <c r="O13">
+        <v>60.276879999999998</v>
+      </c>
+      <c r="P13">
+        <v>298.60700000000003</v>
+      </c>
+      <c r="Q13">
+        <v>1172.7984300000001</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="12"/>
+        <v>0.27847295907635494</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="13"/>
+        <v>6.6360060170074826</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="14"/>
+        <v>7.7241963434022249</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="15"/>
+        <v>3.108567279193835</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="16"/>
+        <v>0.5486748445825933</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="17"/>
+        <v>1.3096551873981532</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="18"/>
+        <v>4.972473855991475</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="19"/>
+        <v>13.310616615594144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A14" s="27">
+        <v>262</v>
+      </c>
+      <c r="B14">
+        <v>838036.50446779223</v>
+      </c>
+      <c r="C14">
+        <v>234895947.4908039</v>
+      </c>
+      <c r="D14">
+        <v>66016.004728316242</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="9"/>
+        <v>8.3803650446779218E-3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="10"/>
+        <v>2.3489594749080389</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="11"/>
+        <v>6.6016004728316243E-4</v>
+      </c>
+      <c r="J14">
+        <v>58.186590000000002</v>
+      </c>
+      <c r="K14">
+        <v>449.31092000000001</v>
+      </c>
+      <c r="L14">
+        <v>300.46264000000002</v>
+      </c>
+      <c r="M14">
+        <v>861.36027000000001</v>
+      </c>
+      <c r="N14">
+        <v>85.194860000000006</v>
+      </c>
+      <c r="O14">
+        <v>93.817019999999999</v>
+      </c>
+      <c r="P14">
+        <v>603.37599999999998</v>
+      </c>
+      <c r="Q14">
+        <v>1055.23785</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="12"/>
+        <v>0.16998910299857434</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="13"/>
+        <v>2.494010302182553</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="14"/>
+        <v>3.4120218033159211</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="15"/>
+        <v>7.2941000084681171</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="16"/>
+        <v>0.94576887211367677</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="17"/>
+        <v>2.0383926127104837</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="18"/>
+        <v>10.047558782388597</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="19"/>
+        <v>11.976368743615934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A15" s="28">
+        <v>268</v>
+      </c>
+      <c r="B15">
+        <v>304072.14315908129</v>
+      </c>
+      <c r="C15">
+        <v>103618993.94110188</v>
+      </c>
+      <c r="D15">
+        <v>76933.915739044678</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="9"/>
+        <v>3.0407214315908127E-3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="10"/>
+        <v>1.0361899394110188</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="11"/>
+        <v>7.6933915739044677E-4</v>
+      </c>
+      <c r="J15">
+        <v>40.944400000000002</v>
+      </c>
+      <c r="K15">
+        <v>817.94280000000003</v>
+      </c>
+      <c r="L15">
+        <v>554.72961999999995</v>
+      </c>
+      <c r="M15">
+        <v>562.69788000000005</v>
+      </c>
+      <c r="N15">
+        <v>62.600290000000001</v>
+      </c>
+      <c r="O15">
+        <v>78.471919999999997</v>
+      </c>
+      <c r="P15">
+        <v>417.30466999999999</v>
+      </c>
+      <c r="Q15">
+        <v>966.68240000000003</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="12"/>
+        <v>0.11961693972468274</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="13"/>
+        <v>4.5401918337440881</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="14"/>
+        <v>6.2994506018623655</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="15"/>
+        <v>4.7649917859259894</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="16"/>
+        <v>0.69494105239786863</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="17"/>
+        <v>1.7049846822379142</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="18"/>
+        <v>6.9490553187237722</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="19"/>
+        <v>10.971313131313131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A16" s="27">
+        <v>292</v>
+      </c>
+      <c r="B16">
+        <v>80066.938506139952</v>
+      </c>
+      <c r="C16">
+        <v>17070068.588398896</v>
+      </c>
+      <c r="D16">
+        <v>49864.473094963112</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="9"/>
+        <v>8.0066938506139949E-4</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="10"/>
+        <v>0.17070068588398896</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="11"/>
+        <v>4.9864473094963114E-4</v>
+      </c>
+      <c r="J16">
+        <v>124.85720999999999</v>
+      </c>
+      <c r="K16">
+        <v>1012.93325</v>
+      </c>
+      <c r="L16">
+        <v>589.42627000000005</v>
+      </c>
+      <c r="M16">
+        <v>480.37770999999998</v>
+      </c>
+      <c r="N16">
+        <v>50.361550000000001</v>
+      </c>
+      <c r="O16">
+        <v>64.628979999999999</v>
+      </c>
+      <c r="P16">
+        <v>360.93290000000002</v>
+      </c>
+      <c r="Q16">
+        <v>1093.77145</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="12"/>
+        <v>0.36476385934980249</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="13"/>
+        <v>5.6225340815737477</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="14"/>
+        <v>6.6934620713150128</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="15"/>
+        <v>4.0678949106613596</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="16"/>
+        <v>0.55907582149200707</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="17"/>
+        <v>1.4042146659424226</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="18"/>
+        <v>6.0103393725437959</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="19"/>
+        <v>12.413703892861196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" s="27">
+        <v>304</v>
+      </c>
+      <c r="B17">
+        <v>104588.1663841532</v>
+      </c>
+      <c r="C17">
+        <v>43689082.082730591</v>
+      </c>
+      <c r="D17">
+        <v>16329.750885258123</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="9"/>
+        <v>1.0458816638415319E-3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="10"/>
+        <v>0.4368908208273059</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="11"/>
+        <v>1.6329750885258124E-4</v>
+      </c>
+      <c r="J17">
+        <v>114.87241</v>
+      </c>
+      <c r="K17">
+        <v>1109.5333700000001</v>
+      </c>
+      <c r="L17">
+        <v>656.57353999999998</v>
+      </c>
+      <c r="M17">
+        <v>379.64476000000002</v>
+      </c>
+      <c r="N17">
+        <v>40.911459999999998</v>
+      </c>
+      <c r="O17">
+        <v>59.50141</v>
+      </c>
+      <c r="P17">
+        <v>295.58515</v>
+      </c>
+      <c r="Q17">
+        <v>766.11440000000005</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="12"/>
+        <v>0.33559378432701525</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="13"/>
+        <v>6.158736705965941</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="14"/>
+        <v>7.4559793322734498</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="15"/>
+        <v>3.2148764501651286</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="16"/>
+        <v>0.45416807282415628</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="17"/>
+        <v>1.2928063009234112</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="18"/>
+        <v>4.9221533004729237</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="19"/>
+        <v>8.6949767336284189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A18" s="27">
+        <v>328</v>
+      </c>
+      <c r="B18">
+        <v>316630.88916506612</v>
+      </c>
+      <c r="C18">
+        <v>111777523.61749649</v>
+      </c>
+      <c r="D18">
+        <v>5845.4933384319893</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="9"/>
+        <v>3.1663088916506613E-3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="10"/>
+        <v>1.1177752361749649</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="11"/>
+        <v>5.8454933384319894E-5</v>
+      </c>
+      <c r="J18">
+        <v>156.63273000000001</v>
+      </c>
+      <c r="K18">
+        <v>725.85338999999999</v>
+      </c>
+      <c r="L18">
+        <v>363.25720999999999</v>
+      </c>
+      <c r="M18">
+        <v>693.25363000000004</v>
+      </c>
+      <c r="N18">
+        <v>46.860149999999997</v>
+      </c>
+      <c r="O18">
+        <v>89.666439999999994</v>
+      </c>
+      <c r="P18">
+        <v>490.47408000000001</v>
+      </c>
+      <c r="Q18">
+        <v>801.72310000000004</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="12"/>
+        <v>0.45759439198822077</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="13"/>
+        <v>4.0290270099247314</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="14"/>
+        <v>4.1251102657279128</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="15"/>
+        <v>5.8705532221187235</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="16"/>
+        <v>0.52020592806394317</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="17"/>
+        <v>1.9482116241173275</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="18"/>
+        <v>8.1674895090921211</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="19"/>
+        <v>9.0991158778799228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" s="27">
+        <v>358</v>
+      </c>
+      <c r="B19">
+        <v>509268.96649429761</v>
+      </c>
+      <c r="C19">
+        <v>204900731.03350568</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="9"/>
+        <v>5.0926896649429758E-3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="10"/>
+        <v>2.0490073103350568</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>155.18781999999999</v>
+      </c>
+      <c r="K19">
+        <v>957.96884</v>
+      </c>
+      <c r="L19">
+        <v>481.79862000000003</v>
+      </c>
+      <c r="M19">
+        <v>828.11914000000002</v>
+      </c>
+      <c r="N19">
+        <v>77.164929999999998</v>
+      </c>
+      <c r="O19">
+        <v>94.18186</v>
+      </c>
+      <c r="P19">
+        <v>605.86423000000002</v>
+      </c>
+      <c r="Q19">
+        <v>790.71897999999999</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="12"/>
+        <v>0.45337316240914294</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="13"/>
+        <v>5.3174406625369119</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="14"/>
+        <v>5.4712539177833301</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="15"/>
+        <v>7.0126102125497498</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="16"/>
+        <v>0.85662666518650088</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="17"/>
+        <v>2.0463196089082021</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="18"/>
+        <v>10.088993372410577</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="19"/>
+        <v>8.9742251730791054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20" s="27">
+        <v>400</v>
+      </c>
+      <c r="B20">
+        <v>428335.81549721287</v>
+      </c>
+      <c r="C20">
+        <v>110345384.45172545</v>
+      </c>
+      <c r="D20">
+        <v>826279.73277732858</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="9"/>
+        <v>4.283358154972129E-3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="10"/>
+        <v>1.1034538445172546</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="11"/>
+        <v>8.2627973277732865E-3</v>
+      </c>
+      <c r="J20">
+        <v>130.95939000000001</v>
+      </c>
+      <c r="K20">
+        <v>721.74555999999995</v>
+      </c>
+      <c r="L20">
+        <v>412.81777</v>
+      </c>
+      <c r="M20">
+        <v>708.43997999999999</v>
+      </c>
+      <c r="N20">
+        <v>83.300979999999996</v>
+      </c>
+      <c r="O20">
+        <v>73.424379999999999</v>
+      </c>
+      <c r="P20">
+        <v>462.19578000000001</v>
+      </c>
+      <c r="Q20">
+        <v>604.21222999999998</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="12"/>
+        <v>0.38259106153738287</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="13"/>
+        <v>4.0062254934612218</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="14"/>
+        <v>4.6879147172382467</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="15"/>
+        <v>5.9991530188839022</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="16"/>
+        <v>0.92474444937833034</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="17"/>
+        <v>1.59531515480717</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="18"/>
+        <v>7.696592619729568</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="19"/>
+        <v>6.8574762229031894</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22591AD3-12BD-4775-A7EB-33F4F47D86C4}">
+  <dimension ref="A1:Z20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="27">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>18965279.246258311</v>
+      </c>
+      <c r="C2">
+        <v>28703861.51641174</v>
+      </c>
+      <c r="D2">
+        <v>12680859.237329951</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:H2" si="0">B2/100000000</f>
+        <v>0.1896527924625831</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.28703861516411738</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0.1268085923732995</v>
+      </c>
+      <c r="J2">
+        <v>120.75663</v>
+      </c>
+      <c r="K2">
+        <v>1669.1786400000001</v>
+      </c>
+      <c r="L2">
+        <v>985.26809000000003</v>
+      </c>
+      <c r="M2">
+        <v>100.80007000000001</v>
+      </c>
+      <c r="N2">
+        <v>35.604489999999998</v>
+      </c>
+      <c r="O2">
+        <v>56.352330000000002</v>
+      </c>
+      <c r="P2">
+        <v>179.96833000000001</v>
+      </c>
+      <c r="Q2">
+        <v>7.1219900000000003</v>
+      </c>
+      <c r="S2">
+        <f>J2/342.296</f>
+        <v>0.35278422768597939</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2" si="1">K2/180.156</f>
+        <v>9.2651848398055012</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2" si="2">L2/88.06</f>
+        <v>11.188599704746764</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2" si="3">M2/118.09</f>
+        <v>0.85358684054534684</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2" si="4">N2/90.08</f>
+        <v>0.39525410746003553</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2" si="5">O2/46.025</f>
+        <v>1.2243852254209668</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2" si="6">P2/60.052</f>
+        <v>2.9968748751082397</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ref="Z2" si="7">Q2/88.11</f>
+        <v>8.0830666212688682E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" s="27">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>119787434.70775336</v>
+      </c>
+      <c r="C3">
+        <v>3081696819.2827339</v>
+      </c>
+      <c r="D3">
+        <v>838865746.0095129</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F20" si="8">B3/100000000</f>
+        <v>1.1978743470775337</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G20" si="9">C3/100000000</f>
+        <v>30.816968192827339</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H20" si="10">D3/100000000</f>
+        <v>8.3886574600951285</v>
+      </c>
+      <c r="J3">
+        <v>163.7432</v>
+      </c>
+      <c r="K3">
+        <v>14.400639999999999</v>
+      </c>
+      <c r="L3">
+        <v>16.096630000000001</v>
+      </c>
+      <c r="M3">
+        <v>558.15980999999999</v>
+      </c>
+      <c r="N3">
+        <v>24.989879999999999</v>
+      </c>
+      <c r="O3">
+        <v>67.605360000000005</v>
+      </c>
+      <c r="P3">
+        <v>806.73792000000003</v>
+      </c>
+      <c r="Q3">
+        <v>260.00166000000002</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S20" si="11">J3/342.296</f>
+        <v>0.47836726108397409</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T20" si="12">K3/180.156</f>
+        <v>7.993427918026598E-2</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U20" si="13">L3/88.06</f>
+        <v>0.18279161935044289</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V20" si="14">M3/118.09</f>
+        <v>4.7265628757727152</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W20" si="15">N3/90.08</f>
+        <v>0.27741873889875668</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X20" si="16">O3/46.025</f>
+        <v>1.4688834329168932</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y20" si="17">P3/60.052</f>
+        <v>13.433989209351896</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z20" si="18">Q3/88.11</f>
+        <v>2.950875723527409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" s="27">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>29221993.926164944</v>
+      </c>
+      <c r="C4">
+        <v>920280174.62275791</v>
+      </c>
+      <c r="D4">
+        <v>330797831.45107716</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="8"/>
+        <v>0.29221993926164946</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="9"/>
+        <v>9.2028017462275784</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="10"/>
+        <v>3.3079783145107715</v>
+      </c>
+      <c r="J4">
+        <v>110.31568</v>
+      </c>
+      <c r="K4">
+        <v>7.4241900000000003</v>
+      </c>
+      <c r="L4">
+        <v>14.73781</v>
+      </c>
+      <c r="M4">
+        <v>403.24331000000001</v>
+      </c>
+      <c r="N4">
+        <v>29.356639999999999</v>
+      </c>
+      <c r="O4">
+        <v>52.113190000000003</v>
+      </c>
+      <c r="P4">
+        <v>375.51598000000001</v>
+      </c>
+      <c r="Q4">
+        <v>988.48947999999996</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="11"/>
+        <v>0.32228153411082805</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="12"/>
+        <v>4.120978485312729E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="13"/>
+        <v>0.16736100386100386</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="14"/>
+        <v>3.4147117452790243</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="15"/>
+        <v>0.32589520426287744</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="16"/>
+        <v>1.1322800651819664</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="17"/>
+        <v>6.2531802437887167</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="18"/>
+        <v>11.218811485642945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5" s="27">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>122352204.1686089</v>
+      </c>
+      <c r="C5">
+        <v>1126073383.4987016</v>
+      </c>
+      <c r="D5">
+        <v>558224412.33268964</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="8"/>
+        <v>1.223522041686089</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="9"/>
+        <v>11.260733834987017</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="10"/>
+        <v>5.5822441233268965</v>
+      </c>
+      <c r="J5">
+        <v>35.841209999999997</v>
+      </c>
+      <c r="K5">
+        <v>5.9505100000000004</v>
+      </c>
+      <c r="L5">
+        <v>14.61223</v>
+      </c>
+      <c r="M5">
+        <v>272.59537</v>
+      </c>
+      <c r="N5">
+        <v>17.4178</v>
+      </c>
+      <c r="O5">
+        <v>53.409179999999999</v>
+      </c>
+      <c r="P5">
+        <v>440.23955000000001</v>
+      </c>
+      <c r="Q5">
+        <v>1191.4309000000001</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="11"/>
+        <v>0.10470823497791384</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="12"/>
+        <v>3.3029763094207243E-2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="13"/>
+        <v>0.16593493072904839</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="14"/>
+        <v>2.3083696333305106</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="15"/>
+        <v>0.19335923623445825</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="16"/>
+        <v>1.1604384573601303</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="17"/>
+        <v>7.3309723239858791</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="18"/>
+        <v>13.522084893882647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" s="27">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>9793709.2731829565</v>
+      </c>
+      <c r="C6">
+        <v>324937819.54887223</v>
+      </c>
+      <c r="D6">
+        <v>168238471.17794487</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="8"/>
+        <v>9.7937092731829559E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="9"/>
+        <v>3.2493781954887222</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="10"/>
+        <v>1.6823847117794486</v>
+      </c>
+      <c r="J6">
+        <v>141.43574000000001</v>
+      </c>
+      <c r="K6">
+        <v>17.375060000000001</v>
+      </c>
+      <c r="L6">
+        <v>16.550239999999999</v>
+      </c>
+      <c r="M6">
+        <v>215.48942</v>
+      </c>
+      <c r="N6">
+        <v>13.80036</v>
+      </c>
+      <c r="O6">
+        <v>63.499369999999999</v>
+      </c>
+      <c r="P6">
+        <v>372.93275</v>
+      </c>
+      <c r="Q6">
+        <v>1387.65768</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="11"/>
+        <v>0.41319717437539444</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="12"/>
+        <v>9.6444525855369792E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="13"/>
+        <v>0.18794276629570744</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="14"/>
+        <v>1.8247897366415444</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="15"/>
+        <v>0.15320115452930727</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="16"/>
+        <v>1.3796712656165129</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="17"/>
+        <v>6.210163691467395</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="18"/>
+        <v>15.749150834184542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" s="27">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>3675972.0597573612</v>
+      </c>
+      <c r="C7">
+        <v>445534663.27997059</v>
+      </c>
+      <c r="D7">
+        <v>233949364.66027206</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="8"/>
+        <v>3.6759720597573611E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="9"/>
+        <v>4.4553466327997056</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="10"/>
+        <v>2.3394936466027207</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>17.351939999999999</v>
+      </c>
+      <c r="L7">
+        <v>14.33816</v>
+      </c>
+      <c r="M7">
+        <v>171.28570999999999</v>
+      </c>
+      <c r="N7">
+        <v>12.53917</v>
+      </c>
+      <c r="O7">
+        <v>51.311689999999999</v>
+      </c>
+      <c r="P7">
+        <v>227.26358999999999</v>
+      </c>
+      <c r="Q7">
+        <v>1231.0036</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="12"/>
+        <v>9.6316192633051342E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="13"/>
+        <v>0.162822620940268</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="14"/>
+        <v>1.4504675247692438</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="15"/>
+        <v>0.13920037744227354</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="16"/>
+        <v>1.1148656165127648</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="17"/>
+        <v>3.7844466462399251</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="18"/>
+        <v>13.971213256157077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8" s="27">
+        <v>118</v>
+      </c>
+      <c r="B8">
+        <v>1285845.1037172743</v>
+      </c>
+      <c r="C8">
+        <v>149685017.72944862</v>
+      </c>
+      <c r="D8">
+        <v>52849137.166834116</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="8"/>
+        <v>1.2858451037172742E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="9"/>
+        <v>1.4968501772944862</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="10"/>
+        <v>0.52849137166834115</v>
+      </c>
+      <c r="J8">
+        <v>183.13074</v>
+      </c>
+      <c r="K8">
+        <v>178.53885</v>
+      </c>
+      <c r="L8">
+        <v>145.52293</v>
+      </c>
+      <c r="M8">
+        <v>166.65349000000001</v>
+      </c>
+      <c r="N8">
+        <v>23.830369999999998</v>
+      </c>
+      <c r="O8">
+        <v>50.801569999999998</v>
+      </c>
+      <c r="P8">
+        <v>220.39726999999999</v>
+      </c>
+      <c r="Q8">
+        <v>988.97095000000002</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="11"/>
+        <v>0.53500695304648616</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="12"/>
+        <v>0.99102361286884699</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="13"/>
+        <v>1.6525429252782193</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="14"/>
+        <v>1.4112413413498179</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="15"/>
+        <v>0.26454673623445824</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="16"/>
+        <v>1.1037820749592613</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="17"/>
+        <v>3.6701070738693131</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="18"/>
+        <v>11.224275905118603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9" s="27">
+        <v>124</v>
+      </c>
+      <c r="B9">
+        <v>876179.19012053078</v>
+      </c>
+      <c r="C9">
+        <v>152841245.53661922</v>
+      </c>
+      <c r="D9">
+        <v>21882575.273260254</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="8"/>
+        <v>8.761791901205308E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="9"/>
+        <v>1.5284124553661922</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="10"/>
+        <v>0.21882575273260255</v>
+      </c>
+      <c r="J9">
+        <v>176.58445</v>
+      </c>
+      <c r="K9">
+        <v>424.93475999999998</v>
+      </c>
+      <c r="L9">
+        <v>309.26846</v>
+      </c>
+      <c r="M9">
+        <v>168.35087999999999</v>
+      </c>
+      <c r="N9">
+        <v>34.911470000000001</v>
+      </c>
+      <c r="O9">
+        <v>51.53472</v>
+      </c>
+      <c r="P9">
+        <v>196.11286999999999</v>
+      </c>
+      <c r="Q9">
+        <v>782.49738000000002</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="11"/>
+        <v>0.51588230654170664</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="12"/>
+        <v>2.3587044561380135</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="13"/>
+        <v>3.5120197592550535</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="14"/>
+        <v>1.4256150393767464</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="15"/>
+        <v>0.38756072380106577</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="16"/>
+        <v>1.1197114611624117</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="17"/>
+        <v>3.2657175447945113</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="18"/>
+        <v>8.8809145386448769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10" s="27">
+        <v>142</v>
+      </c>
+      <c r="B10">
+        <v>401970.00621173129</v>
+      </c>
+      <c r="C10">
+        <v>69464575.38379626</v>
+      </c>
+      <c r="D10">
+        <v>8233454.6099920133</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="8"/>
+        <v>4.0197000621173132E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="9"/>
+        <v>0.69464575383796257</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="10"/>
+        <v>8.2334546099920136E-2</v>
+      </c>
+      <c r="J10">
+        <v>198.28646000000001</v>
+      </c>
+      <c r="K10">
+        <v>953.30759</v>
+      </c>
+      <c r="L10">
+        <v>649.20441000000005</v>
+      </c>
+      <c r="M10">
+        <v>168.26275000000001</v>
+      </c>
+      <c r="N10">
+        <v>58.647860000000001</v>
+      </c>
+      <c r="O10">
+        <v>55.886409999999998</v>
+      </c>
+      <c r="P10">
+        <v>187.20153999999999</v>
+      </c>
+      <c r="Q10">
+        <v>439.14125999999999</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="11"/>
+        <v>0.57928360249608524</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="12"/>
+        <v>5.2915672528253292</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="13"/>
+        <v>7.3722962752668639</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="14"/>
+        <v>1.4248687441781693</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="15"/>
+        <v>0.6510641651865009</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="16"/>
+        <v>1.2142620315046171</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="17"/>
+        <v>3.117323985878905</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="18"/>
+        <v>4.9840115764385429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11" s="27">
+        <v>160</v>
+      </c>
+      <c r="B11">
+        <v>743058.8776448943</v>
+      </c>
+      <c r="C11">
+        <v>170719774.60901564</v>
+      </c>
+      <c r="D11">
+        <v>2237166.5133394664</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="8"/>
+        <v>7.4305887764489426E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="9"/>
+        <v>1.7071977460901564</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="10"/>
+        <v>2.2371665133394666E-2</v>
+      </c>
+      <c r="J11">
+        <v>188.58877000000001</v>
+      </c>
+      <c r="K11">
+        <v>1018.80327</v>
+      </c>
+      <c r="L11">
+        <v>695.34586000000002</v>
+      </c>
+      <c r="M11">
+        <v>250.07786999999999</v>
+      </c>
+      <c r="N11">
+        <v>53.862580000000001</v>
+      </c>
+      <c r="O11">
+        <v>66.394670000000005</v>
+      </c>
+      <c r="P11">
+        <v>233.46701999999999</v>
+      </c>
+      <c r="Q11">
+        <v>212.23148</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="11"/>
+        <v>0.55095230443826404</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="12"/>
+        <v>5.6551170652101508</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="13"/>
+        <v>7.8962736770383826</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="14"/>
+        <v>2.1176887966804978</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="15"/>
+        <v>0.59794160746003555</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="16"/>
+        <v>1.4425783813145032</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="17"/>
+        <v>3.8877476187304336</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="18"/>
+        <v>2.4087104755419362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12" s="27">
+        <v>190</v>
+      </c>
+      <c r="B12">
+        <v>503561.42456982797</v>
+      </c>
+      <c r="C12">
+        <v>137175527.35379866</v>
+      </c>
+      <c r="D12">
+        <v>19620911.221631508</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="8"/>
+        <v>5.0356142456982793E-3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="9"/>
+        <v>1.3717552735379865</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="10"/>
+        <v>0.1962091122163151</v>
+      </c>
+      <c r="J12">
+        <v>192.30409</v>
+      </c>
+      <c r="K12">
+        <v>365.13936999999999</v>
+      </c>
+      <c r="L12">
+        <v>147.01938999999999</v>
+      </c>
+      <c r="M12">
+        <v>781.29704000000004</v>
+      </c>
+      <c r="N12">
+        <v>63.085949999999997</v>
+      </c>
+      <c r="O12">
+        <v>58.186300000000003</v>
+      </c>
+      <c r="P12">
+        <v>569.50068999999996</v>
+      </c>
+      <c r="Q12">
+        <v>147.20713000000001</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="11"/>
+        <v>0.56180641900577277</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="12"/>
+        <v>2.0267954994560267</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="13"/>
+        <v>1.6695365659777424</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="14"/>
+        <v>6.6161151663985098</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="15"/>
+        <v>0.70033248223801059</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="16"/>
+        <v>1.2642324823465509</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="17"/>
+        <v>9.4834591687204419</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="18"/>
+        <v>1.6707198955850642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13" s="27">
+        <v>250</v>
+      </c>
+      <c r="B13">
+        <v>4594777.124229325</v>
+      </c>
+      <c r="C13">
+        <v>441876954.14924526</v>
+      </c>
+      <c r="D13">
+        <v>262128268.72652543</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="8"/>
+        <v>4.5947771242293253E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="9"/>
+        <v>4.4187695414924528</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="10"/>
+        <v>2.6212826872652544</v>
+      </c>
+      <c r="J13">
+        <v>201.95930000000001</v>
+      </c>
+      <c r="K13">
+        <v>14.17895</v>
+      </c>
+      <c r="L13">
+        <v>10.33029</v>
+      </c>
+      <c r="M13">
+        <v>333.26405999999997</v>
+      </c>
+      <c r="N13">
+        <v>25.50393</v>
+      </c>
+      <c r="O13">
+        <v>48.8414</v>
+      </c>
+      <c r="P13">
+        <v>210.02191999999999</v>
+      </c>
+      <c r="Q13">
+        <v>1073.6180899999999</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="11"/>
+        <v>0.59001361394816187</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="12"/>
+        <v>7.8703734541175421E-2</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="13"/>
+        <v>0.11730967522143992</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="14"/>
+        <v>2.8221192310949275</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="15"/>
+        <v>0.2831253330373002</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="16"/>
+        <v>1.0611928299837046</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="17"/>
+        <v>3.4973343102644372</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="18"/>
+        <v>12.184974350244012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A14" s="27">
+        <v>262</v>
+      </c>
+      <c r="B14">
+        <v>5039108.3950547753</v>
+      </c>
+      <c r="C14">
+        <v>427981125.34850329</v>
+      </c>
+      <c r="D14">
+        <v>328399766.25644207</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="8"/>
+        <v>5.0391083950547755E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="9"/>
+        <v>4.2798112534850326</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="10"/>
+        <v>3.2839976625644205</v>
+      </c>
+      <c r="J14">
+        <v>223.32696999999999</v>
+      </c>
+      <c r="K14">
+        <v>15.61486</v>
+      </c>
+      <c r="L14">
+        <v>11.00808</v>
+      </c>
+      <c r="M14">
+        <v>381.41059999999999</v>
+      </c>
+      <c r="N14">
+        <v>25.753419999999998</v>
+      </c>
+      <c r="O14">
+        <v>53.506770000000003</v>
+      </c>
+      <c r="P14">
+        <v>241.21459999999999</v>
+      </c>
+      <c r="Q14">
+        <v>1149.3252299999999</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="11"/>
+        <v>0.65243815294365104</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="12"/>
+        <v>8.6674104664846027E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="13"/>
+        <v>0.12500658641835111</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="14"/>
+        <v>3.2298297908374964</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="15"/>
+        <v>0.28589498223801063</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="16"/>
+        <v>1.1625588267246063</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="17"/>
+        <v>4.016762139479118</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="18"/>
+        <v>13.044208716377256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A15" s="28">
+        <v>268</v>
+      </c>
+      <c r="B15">
+        <v>4368554.4326467952</v>
+      </c>
+      <c r="C15">
+        <v>571004341.8191123</v>
+      </c>
+      <c r="D15">
+        <v>165757103.74824104</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="8"/>
+        <v>4.368554432646795E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="9"/>
+        <v>5.7100434181911233</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="10"/>
+        <v>1.6575710374824104</v>
+      </c>
+      <c r="J15">
+        <v>224.74340000000001</v>
+      </c>
+      <c r="K15">
+        <v>186.28632999999999</v>
+      </c>
+      <c r="L15">
+        <v>333.41172</v>
+      </c>
+      <c r="M15">
+        <v>605.88495</v>
+      </c>
+      <c r="N15">
+        <v>50.369790000000002</v>
+      </c>
+      <c r="O15">
+        <v>70.205269999999999</v>
+      </c>
+      <c r="P15">
+        <v>410.57353000000001</v>
+      </c>
+      <c r="Q15">
+        <v>467.77917000000002</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="11"/>
+        <v>0.65657617968074422</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="12"/>
+        <v>1.0340278980439175</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="13"/>
+        <v>3.786188053599818</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="14"/>
+        <v>5.1307049707849943</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="15"/>
+        <v>0.55916729573712254</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="16"/>
+        <v>1.5253725149375339</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="17"/>
+        <v>6.8369667954439484</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="18"/>
+        <v>5.3090360912495749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A16" s="27">
+        <v>292</v>
+      </c>
+      <c r="B16">
+        <v>4533038.8846963495</v>
+      </c>
+      <c r="C16">
+        <v>516384128.37113243</v>
+      </c>
+      <c r="D16">
+        <v>166602832.74417126</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="8"/>
+        <v>4.5330388846963492E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>5.1638412837113243</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="10"/>
+        <v>1.6660283274417127</v>
+      </c>
+      <c r="J16">
+        <v>207.7227</v>
+      </c>
+      <c r="K16">
+        <v>52.836709999999997</v>
+      </c>
+      <c r="L16">
+        <v>37.338470000000001</v>
+      </c>
+      <c r="M16">
+        <v>896.38158999999996</v>
+      </c>
+      <c r="N16">
+        <v>35.192120000000003</v>
+      </c>
+      <c r="O16">
+        <v>54.582349999999998</v>
+      </c>
+      <c r="P16">
+        <v>558.90426000000002</v>
+      </c>
+      <c r="Q16">
+        <v>383.07301999999999</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="11"/>
+        <v>0.60685108794727372</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="12"/>
+        <v>0.29328309909189809</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="13"/>
+        <v>0.42401169657052012</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="14"/>
+        <v>7.5906646625455156</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="15"/>
+        <v>0.39067628774422741</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="16"/>
+        <v>1.1859282998370451</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="17"/>
+        <v>9.3070049290614811</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="18"/>
+        <v>4.3476679151061175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" s="27">
+        <v>304</v>
+      </c>
+      <c r="B17">
+        <v>3613630.0169335427</v>
+      </c>
+      <c r="C17">
+        <v>505677098.12542701</v>
+      </c>
+      <c r="D17">
+        <v>197909271.8576394</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="8"/>
+        <v>3.6136300169335424E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="9"/>
+        <v>5.05677098125427</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="10"/>
+        <v>1.979092718576394</v>
+      </c>
+      <c r="J17">
+        <v>38.788600000000002</v>
+      </c>
+      <c r="K17">
+        <v>44.41366</v>
+      </c>
+      <c r="L17">
+        <v>19.22315</v>
+      </c>
+      <c r="M17">
+        <v>760.69606999999996</v>
+      </c>
+      <c r="N17">
+        <v>27.093170000000001</v>
+      </c>
+      <c r="O17">
+        <v>50.099890000000002</v>
+      </c>
+      <c r="P17">
+        <v>451.31790999999998</v>
+      </c>
+      <c r="Q17">
+        <v>585.57126000000005</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="11"/>
+        <v>0.11331888190338188</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="12"/>
+        <v>0.24652889717800128</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="13"/>
+        <v>0.21829604814898931</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="14"/>
+        <v>6.4416637310525866</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="15"/>
+        <v>0.30076787300177621</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="16"/>
+        <v>1.0885364475828354</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="17"/>
+        <v>7.5154517751282217</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="18"/>
+        <v>6.6459114742934977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A18" s="27">
+        <v>328</v>
+      </c>
+      <c r="B18">
+        <v>1684355.4300548814</v>
+      </c>
+      <c r="C18">
+        <v>242724482.49948761</v>
+      </c>
+      <c r="D18">
+        <v>109491162.0704575</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="8"/>
+        <v>1.6843554300548815E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="9"/>
+        <v>2.4272448249948759</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="10"/>
+        <v>1.094911620704575</v>
+      </c>
+      <c r="J18">
+        <v>39.683770000000003</v>
+      </c>
+      <c r="K18">
+        <v>18.218859999999999</v>
+      </c>
+      <c r="L18">
+        <v>51.172919999999998</v>
+      </c>
+      <c r="M18">
+        <v>534.01385000000005</v>
+      </c>
+      <c r="N18">
+        <v>28.941669999999998</v>
+      </c>
+      <c r="O18">
+        <v>61.69735</v>
+      </c>
+      <c r="P18">
+        <v>382.47552999999999</v>
+      </c>
+      <c r="Q18">
+        <v>811.43362000000002</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="11"/>
+        <v>0.11593407460209879</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="12"/>
+        <v>0.10112824441039987</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="13"/>
+        <v>0.58111424029071079</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="14"/>
+        <v>4.5220920484376324</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="15"/>
+        <v>0.32128852131438718</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="16"/>
+        <v>1.340518196632265</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="17"/>
+        <v>6.3690723040031969</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="18"/>
+        <v>9.2093249347406658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" s="27">
+        <v>358</v>
+      </c>
+      <c r="B19">
+        <v>1927412.0968076715</v>
+      </c>
+      <c r="C19">
+        <v>253808737.59807378</v>
+      </c>
+      <c r="D19">
+        <v>126713850.3051185</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="8"/>
+        <v>1.9274120968076715E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="9"/>
+        <v>2.5380873759807376</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="10"/>
+        <v>1.267138503051185</v>
+      </c>
+      <c r="J19">
+        <v>41.722189999999998</v>
+      </c>
+      <c r="K19">
+        <v>23.73537</v>
+      </c>
+      <c r="L19">
+        <v>40.296410000000002</v>
+      </c>
+      <c r="M19">
+        <v>696.07487000000003</v>
+      </c>
+      <c r="N19">
+        <v>44.262430000000002</v>
+      </c>
+      <c r="O19">
+        <v>72.638170000000002</v>
+      </c>
+      <c r="P19">
+        <v>619.65774999999996</v>
+      </c>
+      <c r="Q19">
+        <v>861.80735000000004</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="11"/>
+        <v>0.12188921284502302</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="12"/>
+        <v>0.13174898421368147</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="13"/>
+        <v>0.45760174880763116</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="14"/>
+        <v>5.8944438140401392</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="15"/>
+        <v>0.4913680062166963</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="16"/>
+        <v>1.5782329168929929</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="17"/>
+        <v>10.318686305202158</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="18"/>
+        <v>9.7810390421064586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20" s="27">
+        <v>400</v>
+      </c>
+      <c r="B20">
+        <v>2277247.7461049808</v>
+      </c>
+      <c r="C20">
+        <v>376733437.03088021</v>
+      </c>
+      <c r="D20">
+        <v>152679315.22301474</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="8"/>
+        <v>2.2772477461049809E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="9"/>
+        <v>3.7673343703088022</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="10"/>
+        <v>1.5267931522301474</v>
+      </c>
+      <c r="J20">
+        <v>213.12788</v>
+      </c>
+      <c r="K20">
+        <v>19.232489999999999</v>
+      </c>
+      <c r="L20">
+        <v>9.8281399999999994</v>
+      </c>
+      <c r="M20">
+        <v>514.28571999999997</v>
+      </c>
+      <c r="N20">
+        <v>44.021349999999998</v>
+      </c>
+      <c r="O20">
+        <v>68.478980000000007</v>
+      </c>
+      <c r="P20">
+        <v>222.4169</v>
+      </c>
+      <c r="Q20">
+        <v>1034.6424500000001</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="11"/>
+        <v>0.62264204080678709</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="12"/>
+        <v>0.10675464597348963</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="13"/>
+        <v>0.11160731319554848</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="14"/>
+        <v>4.3550319248031162</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="15"/>
+        <v>0.48869171847246889</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="16"/>
+        <v>1.4878648560564913</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="17"/>
+        <v>3.7037384266968627</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="18"/>
+        <v>11.74262229031892</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC8A40B-8D97-4A0E-9145-05F1282EDA4B}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
